--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27645" windowHeight="16545" activeTab="5"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27645" windowHeight="16545" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Sinter" sheetId="5" r:id="rId4"/>
     <sheet name="Iron" sheetId="8" r:id="rId5"/>
     <sheet name="Steel" sheetId="3" r:id="rId6"/>
+    <sheet name="Oxygen" sheetId="9" r:id="rId7"/>
+    <sheet name="Electricity" sheetId="10" r:id="rId8"/>
+    <sheet name="Fuel" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="131">
   <si>
     <t>combustion</t>
   </si>
@@ -94,9 +97,6 @@
     <t>CO2__emitted</t>
   </si>
   <si>
-    <t>molmassratio</t>
-  </si>
-  <si>
     <t>CaCO3</t>
   </si>
   <si>
@@ -163,12 +163,6 @@
     <t>crude steel</t>
   </si>
   <si>
-    <t>reduction</t>
-  </si>
-  <si>
-    <t>C__in iron</t>
-  </si>
-  <si>
     <t>ratio</t>
   </si>
   <si>
@@ -265,12 +259,6 @@
     <t>coke fuel</t>
   </si>
   <si>
-    <t>iron__in ore</t>
-  </si>
-  <si>
-    <t>C-Fe Ratio of Ore</t>
-  </si>
-  <si>
     <t>CaO demand</t>
   </si>
   <si>
@@ -362,15 +350,97 @@
   </si>
   <si>
     <t>biomass cofire rate</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O2 Recovery Efficiency</t>
+  </si>
+  <si>
+    <t>O2__lost</t>
+  </si>
+  <si>
+    <t>separation</t>
+  </si>
+  <si>
+    <t>combustion eff</t>
+  </si>
+  <si>
+    <t>Combustion</t>
+  </si>
+  <si>
+    <t>Inflow</t>
+  </si>
+  <si>
+    <t>energy in fuel</t>
+  </si>
+  <si>
+    <t>lookup ratio-fuels</t>
+  </si>
+  <si>
+    <t>raw fossil fuel</t>
+  </si>
+  <si>
+    <t>inflow</t>
+  </si>
+  <si>
+    <t>is fossil</t>
+  </si>
+  <si>
+    <t>upstream CO2</t>
+  </si>
+  <si>
+    <t>CONSUMED carbon and oxygen</t>
+  </si>
+  <si>
+    <t>is_biofuel</t>
+  </si>
+  <si>
+    <t>is biofuel</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>biomass-to-fuel ratio</t>
+  </si>
+  <si>
+    <t>biofuel__biomass</t>
+  </si>
+  <si>
+    <t>biofuel__production losses</t>
+  </si>
+  <si>
+    <t>subtraction</t>
+  </si>
+  <si>
+    <t>CO2__removed from atmosphere</t>
+  </si>
+  <si>
+    <t>CO2 removal</t>
+  </si>
+  <si>
+    <t>CONSUMED embodied CO2 removal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -418,17 +488,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +823,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -757,96 +833,96 @@
     <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>104</v>
+      <c r="G2" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>104</v>
+      <c r="G3" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>105</v>
+      <c r="B4" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>107</v>
+      <c r="D4" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -859,63 +935,63 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>107</v>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>102</v>
+      <c r="G6" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -928,87 +1004,87 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1016,13 +1092,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -1031,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1042,7 +1118,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1057,53 +1133,53 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>41</v>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1131,50 +1207,50 @@
     <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1182,8 +1258,8 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1191,13 +1267,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1211,13 +1287,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -1225,8 +1301,8 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>103</v>
+      <c r="G4" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1234,13 +1310,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -1248,8 +1324,8 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>103</v>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1257,13 +1333,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -1280,13 +1356,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1296,92 +1372,92 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>101</v>
+      <c r="G8" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>101</v>
+      <c r="G9" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1479,46 @@
     <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1454,8 +1530,8 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1497,8 +1573,8 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>103</v>
+      <c r="G4" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1520,8 +1596,8 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>103</v>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1568,92 +1644,92 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>93</v>
+      <c r="G8" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>93</v>
+      <c r="G9" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1663,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1675,535 +1751,452 @@
     <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>86</v>
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>78</v>
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>65</v>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>4</v>
+      <c r="G16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="5" t="s">
+      <c r="F20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2216,60 +2209,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -2278,15 +2272,15 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -2301,12 +2295,12 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>90</v>
+      <c r="A4" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -2314,8 +2308,8 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>91</v>
+      <c r="D4" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2323,22 +2317,22 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>59</v>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>91</v>
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>82</v>
+      <c r="D5" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2348,17 +2342,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>82</v>
+      <c r="A6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>64</v>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2366,22 +2360,22 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>110</v>
+      <c r="G6" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>82</v>
+      <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>63</v>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2389,22 +2383,22 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>110</v>
+      <c r="G7" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>92</v>
+      <c r="A8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>63</v>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -2414,17 +2408,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>76</v>
+      <c r="A9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>64</v>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -2434,70 +2428,600 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>80</v>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>41</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40893FBD-065D-9542-A13D-1D5D4D9027DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27645" windowHeight="16545" activeTab="8"/>
+    <workbookView xWindow="5040" yWindow="460" windowWidth="17240" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Electricity" sheetId="10" r:id="rId8"/>
     <sheet name="Fuel" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="126">
   <si>
     <t>combustion</t>
   </si>
@@ -52,39 +53,18 @@
     <t>Addition</t>
   </si>
   <si>
-    <t>biofuel__sinter</t>
-  </si>
-  <si>
-    <t>fossil fuel__sinter</t>
-  </si>
-  <si>
     <t>LHV</t>
   </si>
   <si>
     <t>energycontent</t>
   </si>
   <si>
-    <t>sinter biofuel energy</t>
-  </si>
-  <si>
-    <t>sinter fossil fuel energy</t>
-  </si>
-  <si>
     <t>Remainder</t>
   </si>
   <si>
-    <t>sinter fossil fuel (eq) energy</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
-    <t>fossil fuel__sinter (eq)</t>
-  </si>
-  <si>
-    <t>new steel</t>
-  </si>
-  <si>
     <t>slag</t>
   </si>
   <si>
@@ -187,9 +167,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>CO2__temp</t>
-  </si>
-  <si>
     <t>CO2__total</t>
   </si>
   <si>
@@ -205,39 +182,15 @@
     <t>fossil fuel demand</t>
   </si>
   <si>
-    <t>coke demand</t>
-  </si>
-  <si>
-    <t>secondary fuel  demand</t>
-  </si>
-  <si>
-    <t>coke (eq) energy</t>
-  </si>
-  <si>
     <t>fossil fuel energy</t>
   </si>
   <si>
     <t>biofuel energy</t>
   </si>
   <si>
-    <t>coke energy</t>
-  </si>
-  <si>
-    <t>coke-bio cofire</t>
-  </si>
-  <si>
     <t>secondary fuel energy</t>
   </si>
   <si>
-    <t>coke (eq)</t>
-  </si>
-  <si>
-    <t>secondary fuel (eq)</t>
-  </si>
-  <si>
-    <t>secondary fuel (eq) energy</t>
-  </si>
-  <si>
     <t>secondary biofuel energy</t>
   </si>
   <si>
@@ -256,18 +209,12 @@
     <t>biofuel</t>
   </si>
   <si>
-    <t>coke fuel</t>
-  </si>
-  <si>
     <t>CaO demand</t>
   </si>
   <si>
     <t>slag__CaO</t>
   </si>
   <si>
-    <t>fossil fuel (eq) energy</t>
-  </si>
-  <si>
     <t>sinter demand</t>
   </si>
   <si>
@@ -292,36 +239,12 @@
     <t>fossil fuel use</t>
   </si>
   <si>
-    <t>fossil fuel (eq)</t>
-  </si>
-  <si>
-    <t>fossil fuel fuel</t>
-  </si>
-  <si>
     <t>CaO in Sinter</t>
   </si>
   <si>
     <t>Iron ore</t>
   </si>
   <si>
-    <t>fossil fuel__pellets (eq)</t>
-  </si>
-  <si>
-    <t>pellets fossil fuel (eq) energy</t>
-  </si>
-  <si>
-    <t>pellets biofuel energy</t>
-  </si>
-  <si>
-    <t>pellets fossil fuel energy</t>
-  </si>
-  <si>
-    <t>fossil fuel__pellets</t>
-  </si>
-  <si>
-    <t>biofuel__pellets</t>
-  </si>
-  <si>
     <t>CaO in pellets</t>
   </si>
   <si>
@@ -334,18 +257,9 @@
     <t>coking efficiency</t>
   </si>
   <si>
-    <t>coal loss</t>
-  </si>
-  <si>
-    <t>coal fuel</t>
-  </si>
-  <si>
     <t>COG energy</t>
   </si>
   <si>
-    <t>coal fuel__lost</t>
-  </si>
-  <si>
     <t>scrap demand</t>
   </si>
   <si>
@@ -358,9 +272,6 @@
     <t>O2</t>
   </si>
   <si>
-    <t>O2 Recovery Efficiency</t>
-  </si>
-  <si>
     <t>O2__lost</t>
   </si>
   <si>
@@ -425,12 +336,87 @@
   </si>
   <si>
     <t>CONSUMED embodied CO2 removal</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>oxygen demand</t>
+  </si>
+  <si>
+    <t>CONSUMED O2</t>
+  </si>
+  <si>
+    <t>primary fuel demand</t>
+  </si>
+  <si>
+    <t>primary-bio cofire</t>
+  </si>
+  <si>
+    <t>fuel__lost</t>
+  </si>
+  <si>
+    <t>combustion-noenergyin</t>
+  </si>
+  <si>
+    <t>iron ore</t>
+  </si>
+  <si>
+    <t>fossil fuel__eq</t>
+  </si>
+  <si>
+    <t>fossil fuel__equiv</t>
+  </si>
+  <si>
+    <t>fossl fuel energy</t>
+  </si>
+  <si>
+    <t>fossil fuel</t>
+  </si>
+  <si>
+    <t>fossil fuel equiv energy</t>
+  </si>
+  <si>
+    <t>primary fuel</t>
+  </si>
+  <si>
+    <t>primary fuel energy</t>
+  </si>
+  <si>
+    <t>secondary fuel__eq</t>
+  </si>
+  <si>
+    <t>primary fuel__eq</t>
+  </si>
+  <si>
+    <t>primary fuel eq energy</t>
+  </si>
+  <si>
+    <t>secondary fuel eq energy</t>
+  </si>
+  <si>
+    <t>secondary fuel demand</t>
+  </si>
+  <si>
+    <t>fossil fuel eq energy</t>
+  </si>
+  <si>
+    <t>O2 Recovery Eff</t>
+  </si>
+  <si>
+    <t>total metal</t>
+  </si>
+  <si>
+    <t>hot metal demand</t>
+  </si>
+  <si>
+    <t>slag__steel loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -490,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -505,10 +491,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -819,179 +807,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>101</v>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>101</v>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
+      <c r="D3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1000,192 +968,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -1194,270 +1162,267 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
+      <c r="D2" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>90</v>
+      <c r="B3" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>91</v>
+      <c r="D3" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
+      <c r="B4" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>92</v>
+      <c r="D4" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>91</v>
+      <c r="B5" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>93</v>
+      <c r="D5" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>93</v>
+      <c r="B6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>92</v>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>89</v>
+      <c r="D9" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1466,270 +1431,267 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
+      <c r="D2" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+      <c r="B3" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+      <c r="D3" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+      <c r="B4" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+      <c r="D4" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
+      <c r="B5" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1738,465 +1700,491 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="H21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2206,291 +2194,409 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2499,70 +2605,70 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2570,27 +2676,27 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2598,27 +2704,27 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2626,24 +2732,24 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
@@ -2652,7 +2758,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2666,7 +2772,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2686,71 +2792,71 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2759,57 +2865,57 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2817,19 +2923,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2837,19 +2943,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2857,36 +2963,36 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2894,132 +3000,132 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G12" s="11"/>
     </row>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40893FBD-065D-9542-A13D-1D5D4D9027DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079CBEFE-18A4-314B-B7C9-7749E35900A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="460" windowWidth="17240" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="20820" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Sinter" sheetId="5" r:id="rId4"/>
     <sheet name="Iron" sheetId="8" r:id="rId5"/>
     <sheet name="Steel" sheetId="3" r:id="rId6"/>
-    <sheet name="Oxygen" sheetId="9" r:id="rId7"/>
-    <sheet name="Electricity" sheetId="10" r:id="rId8"/>
-    <sheet name="Fuel" sheetId="11" r:id="rId9"/>
+    <sheet name="Finishing" sheetId="12" r:id="rId7"/>
+    <sheet name="Oxygen" sheetId="9" r:id="rId8"/>
+    <sheet name="Electricity" sheetId="10" r:id="rId9"/>
+    <sheet name="Fuel" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -967,6 +968,276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
@@ -2197,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2605,6 +2876,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0735380D-D647-E44C-BAD6-7C4C640E15EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -2791,7 +3076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2862,274 +3147,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079CBEFE-18A4-314B-B7C9-7749E35900A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="20820" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -22,9 +21,12 @@
     <sheet name="Finishing" sheetId="12" r:id="rId7"/>
     <sheet name="Oxygen" sheetId="9" r:id="rId8"/>
     <sheet name="Electricity" sheetId="10" r:id="rId9"/>
-    <sheet name="Fuel" sheetId="11" r:id="rId10"/>
+    <sheet name="Heat" sheetId="16" r:id="rId10"/>
+    <sheet name="CO2 Capture" sheetId="13" r:id="rId11"/>
+    <sheet name="CO2 Storage" sheetId="14" r:id="rId12"/>
+    <sheet name="Fuel" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="141">
   <si>
     <t>combustion</t>
   </si>
@@ -412,15 +414,74 @@
   </si>
   <si>
     <t>slag__steel loss</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2__collected</t>
+  </si>
+  <si>
+    <t>% CO2 Collected</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>CO2 Capture Efficiency</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>Heat Demand</t>
+  </si>
+  <si>
+    <t>CO2__stored</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Ancillary Emissions</t>
+  </si>
+  <si>
+    <t>electricity__from fuel</t>
+  </si>
+  <si>
+    <t>outflow</t>
+  </si>
+  <si>
+    <t>Electricity from recovered energy</t>
+  </si>
+  <si>
+    <t>CONSUMED heat</t>
+  </si>
+  <si>
+    <t>compressed CO2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -455,6 +516,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -473,31 +541,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -808,21 +882,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -854,7 +928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -877,7 +951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -900,7 +974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -920,7 +994,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -943,7 +1017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -969,25 +1043,429 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1537,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1594,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>91</v>
       </c>
@@ -1134,7 +1612,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1154,7 +1632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -1172,7 +1650,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>93</v>
       </c>
@@ -1195,7 +1673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>95</v>
       </c>
@@ -1215,7 +1693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>98</v>
       </c>
@@ -1239,16 +1717,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1280,7 +1758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1326,7 +1804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1830,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1856,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1421,10 +1899,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -1433,20 +1911,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1478,7 +1956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +1979,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +2022,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +2045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1607,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
@@ -1630,7 +2108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -1653,7 +2131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1676,7 +2154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1702,20 +2180,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1747,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +2248,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +2268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1813,7 +2291,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +2314,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1856,7 +2334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1876,7 +2354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1899,7 +2377,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1922,7 +2400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +2423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1971,20 +2449,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2016,7 +2494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2039,7 +2517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2062,7 +2540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -2085,7 +2563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -2105,7 +2583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -2128,7 +2606,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -2151,7 +2629,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -2171,7 +2649,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -2191,7 +2669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2214,7 +2692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -2234,7 +2712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
@@ -2257,7 +2735,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -2280,7 +2758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -2300,7 +2778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -2321,7 +2799,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2344,7 +2822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2364,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -2387,7 +2865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +2911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2465,21 +2943,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2511,7 +2989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2534,7 +3012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2557,7 +3035,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2584,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -2611,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
@@ -2634,7 +3112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -2654,7 +3132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
@@ -2677,7 +3155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2700,7 +3178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -2720,7 +3198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -2740,7 +3218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2763,7 +3241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2784,7 +3262,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -2807,7 +3285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2827,7 +3305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>101</v>
       </c>
@@ -2850,7 +3328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -2876,30 +3354,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0735380D-D647-E44C-BAD6-7C4C640E15EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -2933,7 +3411,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
@@ -2961,7 +3439,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -2989,7 +3467,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -3017,7 +3495,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -3043,7 +3521,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3057,7 +3535,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3077,25 +3555,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -3124,23 +3602,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>81</v>
       </c>
     </row>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="1215" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>biofuel__biomass</t>
   </si>
   <si>
-    <t>biofuel__production losses</t>
-  </si>
-  <si>
     <t>subtraction</t>
   </si>
   <si>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>compressed CO2</t>
+  </si>
+  <si>
+    <t>biofuel production losses</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>4</v>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>4</v>
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1089,10 +1089,10 @@
         <v>83</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>82</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>4</v>
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -1188,13 +1188,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1202,13 +1202,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>41</v>
@@ -1217,12 +1217,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>4</v>
@@ -1231,18 +1231,18 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>39</v>
@@ -1294,18 +1294,18 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>41</v>
@@ -1323,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1381,12 +1381,12 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1395,18 +1395,18 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1421,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1658,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>97</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -1690,18 +1690,18 @@
         <v>85</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1984,13 +1984,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2004,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2027,13 +2027,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2050,13 +2050,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2253,13 +2253,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2273,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2296,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2319,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -2331,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2551,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2560,7 +2560,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2568,13 +2568,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2588,7 +2588,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -2603,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2626,7 +2626,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2634,19 +2634,19 @@
         <v>54</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>4</v>
@@ -2689,7 +2689,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2697,13 +2697,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -2717,7 +2717,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2740,7 +2740,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -2775,7 +2775,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -3032,7 +3032,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>4</v>
@@ -3067,13 +3067,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>1</v>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -3117,13 +3117,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3137,7 +3137,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -3160,7 +3160,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -3183,7 +3183,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -3195,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3307,7 +3307,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -3325,12 +3325,12 @@
         <v>36</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>78</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
@@ -3431,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3459,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3607,10 +3607,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>4</v>
@@ -3619,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3630,7 +3630,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>4</v>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E137FE2B-413C-D343-8FC8-65A4B3BDEAFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="5740" yWindow="460" windowWidth="20820" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="CO2 Storage" sheetId="14" r:id="rId12"/>
     <sheet name="Fuel" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="145">
   <si>
     <t>combustion</t>
   </si>
@@ -260,9 +261,6 @@
     <t>coking efficiency</t>
   </si>
   <si>
-    <t>COG energy</t>
-  </si>
-  <si>
     <t>scrap demand</t>
   </si>
   <si>
@@ -459,12 +457,27 @@
   </si>
   <si>
     <t>biofuel production losses</t>
+  </si>
+  <si>
+    <t>fuel_eq</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>COG energy from fuel</t>
+  </si>
+  <si>
+    <t>COG energy from biofuel</t>
+  </si>
+  <si>
+    <t>biofuel__lost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -570,8 +583,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,21 +895,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -928,15 +941,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
+      <c r="B2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>32</v>
@@ -951,89 +964,178 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1043,16 +1145,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1081,24 +1183,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1107,25 +1209,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1154,15 +1256,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>4</v>
@@ -1171,15 +1273,15 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -1188,27 +1290,27 @@
         <v>13</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>41</v>
@@ -1217,12 +1319,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>4</v>
@@ -1231,18 +1333,18 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -1260,7 +1362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1277,15 +1379,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>39</v>
@@ -1294,18 +1396,18 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>41</v>
@@ -1320,22 +1422,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1364,15 +1466,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1381,12 +1483,12 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1395,18 +1497,18 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1421,10 +1523,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1432,7 +1534,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1447,25 +1549,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -1497,7 +1599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1505,19 +1607,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1525,19 +1627,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1551,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1574,7 +1676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1582,21 +1684,21 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1612,7 +1714,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1620,27 +1722,27 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1650,21 +1752,21 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
@@ -1673,35 +1775,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -1717,16 +1819,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1758,7 +1860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1781,7 +1883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1804,7 +1906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1830,7 +1932,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +1958,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1879,7 +1981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1899,10 +2001,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -1911,20 +2013,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1956,7 +2058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1979,18 +2081,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1999,12 +2101,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2022,18 +2124,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2045,18 +2147,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2065,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2085,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
@@ -2108,7 +2210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -2119,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2131,7 +2233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2154,7 +2256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2180,20 +2282,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2225,7 +2327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2236,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2248,18 +2350,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2268,12 +2370,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2291,12 +2393,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2314,12 +2416,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -2331,10 +2433,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2351,10 +2453,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -2377,7 +2479,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2400,7 +2502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2423,7 +2525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2449,20 +2551,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2494,7 +2596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2517,7 +2619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -2551,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2560,21 +2662,21 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2583,12 +2685,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -2603,21 +2705,21 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2626,30 +2728,30 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -2666,10 +2768,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2680,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>4</v>
@@ -2689,21 +2791,21 @@
         <v>9</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -2712,12 +2814,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2735,12 +2837,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -2758,7 +2860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -2775,10 +2877,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -2795,11 +2897,11 @@
         <v>19</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2822,7 +2924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2842,7 +2944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +2967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -2885,7 +2987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -2911,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2943,21 +3045,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2989,7 +3091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3009,10 +3111,10 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3032,10 +3134,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -3046,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>4</v>
@@ -3062,18 +3164,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>1</v>
@@ -3089,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
@@ -3100,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -3112,18 +3214,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3132,12 +3234,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -3152,15 +3254,15 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -3175,15 +3277,15 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -3195,10 +3297,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -3215,10 +3317,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3241,7 +3343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3364,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -3285,7 +3387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -3305,9 +3407,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -3316,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
@@ -3325,21 +3427,21 @@
         <v>36</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
@@ -3354,30 +3456,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -3411,9 +3513,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -3422,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -3431,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3439,9 +3541,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -3450,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>41</v>
@@ -3459,7 +3561,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3467,12 +3569,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -3495,9 +3597,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -3521,7 +3623,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3535,7 +3637,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3555,25 +3657,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -3602,15 +3704,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>4</v>
@@ -3619,27 +3721,27 @@
         <v>8</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E137FE2B-413C-D343-8FC8-65A4B3BDEAFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="460" windowWidth="20820" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -26,8 +25,9 @@
     <sheet name="CO2 Capture" sheetId="13" r:id="rId11"/>
     <sheet name="CO2 Storage" sheetId="14" r:id="rId12"/>
     <sheet name="Fuel" sheetId="11" r:id="rId13"/>
+    <sheet name="EAF" sheetId="17" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="154">
   <si>
     <t>combustion</t>
   </si>
@@ -472,12 +472,39 @@
   </si>
   <si>
     <t>biofuel__lost</t>
+  </si>
+  <si>
+    <t>Outflow</t>
+  </si>
+  <si>
+    <t>steel scrap</t>
+  </si>
+  <si>
+    <t>ReturnValue</t>
+  </si>
+  <si>
+    <t>Process CO2</t>
+  </si>
+  <si>
+    <t>fuel__equiv</t>
+  </si>
+  <si>
+    <t>energy from biofuel</t>
+  </si>
+  <si>
+    <t>energy from fuel</t>
+  </si>
+  <si>
+    <t>Fresh Steel Demand</t>
+  </si>
+  <si>
+    <t>fresh steel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -583,8 +610,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -895,21 +922,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -941,7 +968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -964,7 +991,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -987,7 +1014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +1037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>141</v>
       </c>
@@ -1033,7 +1060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>141</v>
       </c>
@@ -1053,7 +1080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>141</v>
       </c>
@@ -1076,7 +1103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>141</v>
       </c>
@@ -1096,7 +1123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1119,7 +1146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1145,16 +1172,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1183,7 +1210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1209,25 +1236,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1256,7 +1283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>124</v>
       </c>
@@ -1279,7 +1306,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>124</v>
       </c>
@@ -1302,7 +1329,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>125</v>
       </c>
@@ -1322,7 +1349,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>125</v>
       </c>
@@ -1342,7 +1369,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>138</v>
       </c>
@@ -1362,7 +1389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1379,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>138</v>
       </c>
@@ -1399,7 +1426,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>129</v>
       </c>
@@ -1422,22 +1449,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>138</v>
       </c>
@@ -1486,7 +1513,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>138</v>
       </c>
@@ -1506,7 +1533,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1526,7 +1553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1549,25 +1576,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -1599,7 +1626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1676,7 +1703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +1723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>90</v>
       </c>
@@ -1714,7 +1741,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1734,7 +1761,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -1752,7 +1779,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>92</v>
       </c>
@@ -1775,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>94</v>
       </c>
@@ -1795,7 +1822,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>96</v>
       </c>
@@ -1812,6 +1839,294 @@
         <v>15</v>
       </c>
       <c r="G12" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1819,16 +2134,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1860,7 +2175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1883,7 +2198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1906,7 +2221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +2247,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1958,7 +2273,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1981,7 +2296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2001,10 +2316,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2013,20 +2328,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2058,7 +2373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2081,7 +2396,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2101,7 +2416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2124,7 +2439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2147,7 +2462,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2167,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2187,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
@@ -2210,7 +2525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -2233,7 +2548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2256,7 +2571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2282,20 +2597,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +2642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2665,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2370,7 +2685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2393,7 +2708,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2416,7 +2731,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2436,7 +2751,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2456,7 +2771,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -2479,7 +2794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2502,7 +2817,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2551,20 +2866,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2596,7 +2911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2619,7 +2934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2980,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -2685,7 +3000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -2708,7 +3023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -2731,7 +3046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -2751,7 +3066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -2771,7 +3086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2794,7 +3109,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -2814,7 +3129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
@@ -2837,7 +3152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -2860,7 +3175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -2880,7 +3195,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -2901,7 +3216,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2924,7 +3239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2944,7 +3259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -2967,7 +3282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +3302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3013,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3045,21 +3360,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -3091,7 +3406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3114,7 +3429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3137,7 +3452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +3479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -3191,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
@@ -3214,7 +3529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -3234,7 +3549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
@@ -3257,7 +3572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -3280,7 +3595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -3300,7 +3615,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -3320,7 +3635,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +3658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3364,7 +3679,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -3387,7 +3702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -3407,7 +3722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>99</v>
       </c>
@@ -3430,7 +3745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -3456,30 +3771,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -3513,7 +3828,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>79</v>
       </c>
@@ -3541,7 +3856,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -3569,7 +3884,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3597,7 +3912,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -3623,7 +3938,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3637,7 +3952,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3657,25 +3972,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -3704,7 +4019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
@@ -3724,7 +4039,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -1850,10 +1850,14 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
@@ -1892,7 +1896,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>145</v>
@@ -1915,7 +1919,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>145</v>
@@ -1938,7 +1942,7 @@
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>145</v>
@@ -1981,7 +1985,7 @@
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>145</v>
@@ -2024,7 +2028,7 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>135</v>
@@ -3364,7 +3368,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -505,9 +505,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -583,28 +590,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -1849,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -2336,7 +2344,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2613,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2751,8 +2759,8 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>105</v>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2771,8 +2779,8 @@
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>105</v>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2874,7 +2882,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3066,8 +3074,8 @@
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>105</v>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3077,8 +3085,8 @@
       <c r="B9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>50</v>
@@ -3086,8 +3094,8 @@
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>105</v>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3195,8 +3203,8 @@
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>105</v>
+      <c r="F14" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3215,8 +3223,8 @@
       <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>105</v>
+      <c r="F15" s="18" t="s">
+        <v>0</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -3979,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="155">
   <si>
     <t>combustion</t>
   </si>
@@ -204,9 +204,6 @@
     <t>coke use</t>
   </si>
   <si>
-    <t>other fuel</t>
-  </si>
-  <si>
     <t>secondary biofuel</t>
   </si>
   <si>
@@ -499,15 +496,28 @@
   </si>
   <si>
     <t>fresh steel</t>
+  </si>
+  <si>
+    <t>injectant fuel</t>
+  </si>
+  <si>
+    <t>O2 demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -590,31 +600,33 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>4</v>
@@ -996,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1004,13 +1016,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>2</v>
@@ -1019,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1027,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>4</v>
@@ -1042,12 +1054,12 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1056,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>4</v>
@@ -1065,41 +1077,41 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
@@ -1108,27 +1120,27 @@
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1151,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1223,19 +1235,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1293,13 +1305,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>4</v>
@@ -1308,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1316,7 +1328,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -1325,13 +1337,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1339,13 +1351,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>41</v>
@@ -1354,12 +1366,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>4</v>
@@ -1368,18 +1380,18 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -1416,13 +1428,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>39</v>
@@ -1431,18 +1443,18 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>41</v>
@@ -1503,13 +1515,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1518,12 +1530,12 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1532,18 +1544,18 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1558,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1569,7 +1581,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1642,13 +1654,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1662,16 +1674,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1688,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1702,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1719,27 +1731,27 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -1751,33 +1763,33 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1789,22 +1801,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
@@ -1812,33 +1824,33 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -1907,19 +1919,19 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
         <v>145</v>
       </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1930,119 +1942,119 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -2051,38 +2063,38 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2091,53 +2103,53 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2390,13 +2402,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2405,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2413,13 +2425,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2433,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2448,7 +2460,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2456,13 +2468,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2471,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2479,13 +2491,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2499,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
@@ -2516,10 +2528,10 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -2534,21 +2546,21 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2557,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2565,7 +2577,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -2665,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2674,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2682,13 +2694,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2702,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2717,7 +2729,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2725,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2740,7 +2752,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2748,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -2768,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
@@ -2803,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2817,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2826,7 +2838,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2879,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2928,7 +2940,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2943,7 +2955,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2951,13 +2963,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -2966,7 +2978,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2974,13 +2986,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2989,7 +3001,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2997,13 +3009,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -3017,7 +3029,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -3032,7 +3044,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3040,13 +3052,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3055,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3063,13 +3075,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -3083,7 +3095,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>2</v>
@@ -3099,17 +3111,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>55</v>
+      <c r="A10" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>4</v>
@@ -3118,21 +3130,21 @@
         <v>9</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>55</v>
+      <c r="A11" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -3142,11 +3154,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>55</v>
+      <c r="A12" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -3165,11 +3177,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>55</v>
+      <c r="A13" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -3188,8 +3200,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>55</v>
+      <c r="A14" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>52</v>
@@ -3198,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
@@ -3208,8 +3220,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>55</v>
+      <c r="A15" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>51</v>
@@ -3229,115 +3241,113 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A16" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="G19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3345,24 +3355,50 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3438,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3452,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>2</v>
@@ -3461,7 +3497,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3469,13 +3505,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>4</v>
@@ -3496,19 +3532,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="s">
@@ -3520,7 +3556,7 @@
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>35</v>
@@ -3529,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -3543,16 +3579,16 @@
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3563,10 +3599,10 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -3581,15 +3617,15 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -3604,15 +3640,15 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -3624,15 +3660,15 @@
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -3644,7 +3680,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3667,7 +3703,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3681,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>1</v>
@@ -3736,7 +3772,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -3745,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
@@ -3754,21 +3790,21 @@
         <v>36</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
@@ -3842,7 +3878,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -3851,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -3860,7 +3896,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3870,7 +3906,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -3879,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>41</v>
@@ -3888,7 +3924,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3898,10 +3934,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -3926,7 +3962,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -3987,7 +4023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4036,10 +4072,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>4</v>
@@ -4048,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4056,19 +4092,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9E8600-E8F7-7B44-BC58-E080E0E762E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="5740" yWindow="460" windowWidth="20820" windowHeight="17540" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="154">
   <si>
     <t>combustion</t>
   </si>
@@ -93,9 +94,6 @@
     <t>steel</t>
   </si>
   <si>
-    <t>scrap</t>
-  </si>
-  <si>
     <t>coinflows</t>
   </si>
   <si>
@@ -402,9 +400,6 @@
     <t>total metal</t>
   </si>
   <si>
-    <t>hot metal demand</t>
-  </si>
-  <si>
     <t>slag__steel loss</t>
   </si>
   <si>
@@ -502,12 +497,15 @@
   </si>
   <si>
     <t>O2 demand</t>
+  </si>
+  <si>
+    <t>total metal demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -630,8 +628,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,64 +940,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -1008,21 +1006,21 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>2</v>
@@ -1031,15 +1029,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>4</v>
@@ -1054,12 +1052,12 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1068,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>4</v>
@@ -1077,41 +1075,41 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17" t="s">
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
@@ -1120,41 +1118,41 @@
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>142</v>
-      </c>
       <c r="E8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
@@ -1163,21 +1161,21 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
@@ -1192,62 +1190,62 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1256,62 +1254,62 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>4</v>
@@ -1320,58 +1318,58 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>4</v>
@@ -1380,84 +1378,84 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>15</v>
@@ -1469,122 +1467,122 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1596,57 +1594,57 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1654,19 +1652,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1674,19 +1672,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1700,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1723,7 +1721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1731,27 +1729,27 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -1761,35 +1759,35 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1799,58 +1797,58 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>94</v>
       </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -1866,195 +1864,195 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -2063,38 +2061,38 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2103,53 +2101,53 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2158,105 +2156,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -2265,18 +2263,18 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2291,24 +2289,24 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
@@ -2317,21 +2315,21 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -2340,10 +2338,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2352,63 +2350,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2417,21 +2415,21 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2440,18 +2438,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2460,21 +2458,21 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2483,21 +2481,21 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2506,18 +2504,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2526,18 +2524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -2546,21 +2544,21 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2569,21 +2567,21 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
@@ -2592,21 +2590,21 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1</v>
@@ -2621,63 +2619,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2686,21 +2684,21 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2709,18 +2707,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2729,21 +2727,21 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2752,21 +2750,21 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2775,18 +2773,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2795,18 +2793,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -2815,21 +2813,21 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2838,21 +2836,21 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
@@ -2861,21 +2859,21 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1</v>
@@ -2890,109 +2888,109 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -3001,21 +2999,21 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -3024,18 +3022,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -3044,21 +3042,21 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3067,21 +3065,21 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -3090,18 +3088,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -3110,18 +3108,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>4</v>
@@ -3130,21 +3128,21 @@
         <v>9</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -3153,41 +3151,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>4</v>
@@ -3196,86 +3194,86 @@
         <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2</v>
@@ -3284,21 +3282,21 @@
         <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>1</v>
@@ -3307,35 +3305,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -3350,18 +3348,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>4</v>
@@ -3370,18 +3368,18 @@
         <v>5</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>4</v>
@@ -3393,10 +3391,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>1</v>
@@ -3408,64 +3406,64 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
+      <c r="D2" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -3474,98 +3472,98 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>2</v>
+      <c r="D3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
+      <c r="B4" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="10" t="s">
-        <v>18</v>
+      <c r="H4" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -3574,21 +3572,21 @@
         <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3597,18 +3595,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -3617,21 +3615,21 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -3640,84 +3638,84 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>1</v>
@@ -3727,18 +3725,18 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>2</v>
@@ -3747,21 +3745,21 @@
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1</v>
@@ -3770,41 +3768,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="12" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
@@ -3819,75 +3817,75 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -3896,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3904,27 +3902,27 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3932,27 +3930,27 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3960,21 +3958,21 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
@@ -3986,7 +3984,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4000,7 +3998,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4020,62 +4018,62 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>4</v>
@@ -4084,27 +4082,27 @@
         <v>8</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9E8600-E8F7-7B44-BC58-E080E0E762E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="460" windowWidth="20820" windowHeight="17540" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -27,6 +26,8 @@
     <sheet name="CO2 Storage" sheetId="14" r:id="rId12"/>
     <sheet name="Fuel" sheetId="11" r:id="rId13"/>
     <sheet name="EAF" sheetId="17" r:id="rId14"/>
+    <sheet name="DRI" sheetId="18" r:id="rId15"/>
+    <sheet name="electrolysis" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="159">
   <si>
     <t>combustion</t>
   </si>
@@ -500,15 +501,37 @@
   </si>
   <si>
     <t>total metal demand</t>
+  </si>
+  <si>
+    <t>iron sponge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> outflows</t>
+  </si>
+  <si>
+    <t>fuel__eq</t>
+  </si>
+  <si>
+    <t>fuel eq energy</t>
+  </si>
+  <si>
+    <t>fuel energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -598,38 +621,39 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -940,21 +964,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -986,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>138</v>
       </c>
@@ -1078,7 +1102,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>138</v>
       </c>
@@ -1098,7 +1122,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>138</v>
       </c>
@@ -1121,7 +1145,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>138</v>
       </c>
@@ -1141,7 +1165,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1164,7 +1188,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1190,16 +1214,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1228,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1254,25 +1278,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>121</v>
       </c>
@@ -1324,7 +1348,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>121</v>
       </c>
@@ -1347,7 +1371,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>122</v>
       </c>
@@ -1367,7 +1391,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>122</v>
       </c>
@@ -1387,7 +1411,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>135</v>
       </c>
@@ -1407,7 +1431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>135</v>
       </c>
@@ -1444,7 +1468,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>126</v>
       </c>
@@ -1467,22 +1491,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>135</v>
       </c>
@@ -1531,7 +1555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>135</v>
       </c>
@@ -1551,7 +1575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -1571,7 +1595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1594,25 +1618,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1684,7 +1708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1721,7 +1745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1765,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>88</v>
       </c>
@@ -1759,7 +1783,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -1779,7 +1803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1797,7 +1821,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>90</v>
       </c>
@@ -1820,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -1840,7 +1864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>94</v>
       </c>
@@ -1864,20 +1888,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1909,7 +1933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1932,7 +1956,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1955,7 +1979,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -1978,7 +2002,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1998,7 +2022,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2021,7 +2045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2041,7 +2065,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +2088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -2087,7 +2111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2110,7 +2134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2130,7 +2154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2155,17 +2179,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2197,7 +2422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2220,7 +2445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2243,7 +2468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2494,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2295,7 +2520,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2318,7 +2543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2338,10 +2563,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2350,20 +2575,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2395,7 +2620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2418,7 +2643,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2461,7 +2686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2484,7 +2709,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2504,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2524,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -2547,7 +2772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
@@ -2570,7 +2795,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2593,7 +2818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2619,20 +2844,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2664,7 +2889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2707,7 +2932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2753,7 +2978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2773,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2793,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -2816,7 +3041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2839,7 +3064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2862,7 +3087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2888,20 +3113,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A4" sqref="A4:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2933,7 +3158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2956,7 +3181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2979,7 +3204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -3002,7 +3227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
@@ -3022,7 +3247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -3045,7 +3270,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3068,7 +3293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -3088,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3108,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>151</v>
       </c>
@@ -3131,7 +3356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>151</v>
       </c>
@@ -3151,7 +3376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>151</v>
       </c>
@@ -3174,7 +3399,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>151</v>
       </c>
@@ -3197,7 +3422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>151</v>
       </c>
@@ -3217,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>151</v>
       </c>
@@ -3238,7 +3463,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>151</v>
       </c>
@@ -3262,7 +3487,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3285,7 +3510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3305,7 +3530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -3328,7 +3553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3374,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3406,21 +3631,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3452,7 +3677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3475,7 +3700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3498,7 +3723,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -3525,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -3552,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -3575,7 +3800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
@@ -3595,7 +3820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
@@ -3618,7 +3843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -3641,7 +3866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -3661,7 +3886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -3681,7 +3906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3704,7 +3929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +3950,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -3748,7 +3973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -3768,7 +3993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -3791,7 +4016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
@@ -3817,30 +4042,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -3874,7 +4099,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
@@ -3902,7 +4127,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -3930,7 +4155,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,7 +4183,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -3984,7 +4209,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3998,7 +4223,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4018,25 +4243,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4065,7 +4290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -4085,7 +4310,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="160">
   <si>
     <t>combustion</t>
   </si>
@@ -488,12 +488,6 @@
     <t>energy from fuel</t>
   </si>
   <si>
-    <t>Fresh Steel Demand</t>
-  </si>
-  <si>
-    <t>fresh steel</t>
-  </si>
-  <si>
     <t>injectant fuel</t>
   </si>
   <si>
@@ -509,22 +503,38 @@
     <t xml:space="preserve"> outflows</t>
   </si>
   <si>
-    <t>fuel__eq</t>
-  </si>
-  <si>
-    <t>fuel eq energy</t>
-  </si>
-  <si>
-    <t>fuel energy</t>
+    <t>reducant demand</t>
+  </si>
+  <si>
+    <t>reducing agent</t>
+  </si>
+  <si>
+    <t>reducing agent__use</t>
+  </si>
+  <si>
+    <t>reduced agent</t>
+  </si>
+  <si>
+    <t>Fresh Metal Demand</t>
+  </si>
+  <si>
+    <t>fresh metal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -621,34 +631,37 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1622,7 +1635,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1891,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1953,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1967,7 +1980,7 @@
         <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>80</v>
@@ -1976,7 +1989,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2181,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2221,118 +2234,115 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
+      <c r="B5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2340,29 +2350,10 @@
       <c r="F7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2370,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -3117,7 +3108,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3326,7 @@
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>59</v>
@@ -3358,7 +3349,7 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>112</v>
@@ -3378,7 +3369,7 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>115</v>
@@ -3401,7 +3392,7 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>115</v>
@@ -3424,7 +3415,7 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>51</v>
@@ -3444,7 +3435,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>50</v>
@@ -3465,7 +3456,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>59</v>
@@ -3483,7 +3474,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3720,7 +3711,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <sheet name="CO2 Capture" sheetId="13" r:id="rId11"/>
     <sheet name="CO2 Storage" sheetId="14" r:id="rId12"/>
     <sheet name="Fuel" sheetId="11" r:id="rId13"/>
-    <sheet name="EAF" sheetId="17" r:id="rId14"/>
-    <sheet name="DRI" sheetId="18" r:id="rId15"/>
-    <sheet name="electrolysis" sheetId="19" r:id="rId16"/>
+    <sheet name="Ore" sheetId="20" r:id="rId14"/>
+    <sheet name="EAF" sheetId="17" r:id="rId15"/>
+    <sheet name="DRI" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1902,9 +1902,21 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2192,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -2354,20 +2366,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E6F74E-FF1F-3749-A2B5-F1C23F2CF529}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="465" windowWidth="20820" windowHeight="17535" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="7920" yWindow="480" windowWidth="21380" windowHeight="17540" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -29,17 +30,23 @@
     <sheet name="EAF" sheetId="17" r:id="rId15"/>
     <sheet name="DRI" sheetId="18" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="163">
   <si>
     <t>combustion</t>
   </si>
@@ -519,12 +526,21 @@
   </si>
   <si>
     <t>fresh metal</t>
+  </si>
+  <si>
+    <t>Scrap Demand</t>
+  </si>
+  <si>
+    <t>CaO Demand</t>
+  </si>
+  <si>
+    <t>metal and CaO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -665,8 +681,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,21 +993,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>138</v>
       </c>
@@ -1115,7 +1131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>138</v>
       </c>
@@ -1135,7 +1151,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>138</v>
       </c>
@@ -1158,7 +1174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>138</v>
       </c>
@@ -1178,7 +1194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1227,16 +1243,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1291,25 +1307,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>121</v>
       </c>
@@ -1361,7 +1377,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>121</v>
       </c>
@@ -1384,7 +1400,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>122</v>
       </c>
@@ -1404,7 +1420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>122</v>
       </c>
@@ -1424,7 +1440,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>135</v>
       </c>
@@ -1444,7 +1460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>135</v>
       </c>
@@ -1481,7 +1497,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>126</v>
       </c>
@@ -1504,22 +1520,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1548,7 +1564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>135</v>
       </c>
@@ -1568,7 +1584,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>135</v>
       </c>
@@ -1588,7 +1604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -1608,7 +1624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1631,25 +1647,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1681,7 +1697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1757,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1758,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1794,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>88</v>
       </c>
@@ -1796,7 +1812,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -1816,7 +1832,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1834,7 +1850,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>90</v>
       </c>
@@ -1857,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -1877,7 +1893,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>94</v>
       </c>
@@ -1901,32 +1917,32 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1958,7 +1974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1975,13 +1991,13 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2004,199 +2020,323 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
         <v>84</v>
       </c>
-      <c r="F5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E14" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
         <v>148</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>132</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2205,16 +2345,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -2246,7 +2389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>152</v>
       </c>
@@ -2266,7 +2409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>152</v>
       </c>
@@ -2286,7 +2429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>152</v>
@@ -2307,7 +2450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>148</v>
@@ -2325,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="22" t="s">
         <v>155</v>
@@ -2346,7 +2489,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>156</v>
       </c>
@@ -2370,16 +2513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2411,7 +2554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2434,7 +2577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2457,7 +2600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2483,7 +2626,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2509,7 +2652,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2532,7 +2675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2552,10 +2695,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2564,20 +2707,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2609,7 +2752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2632,7 +2775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2652,7 +2795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2675,7 +2818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2698,7 +2841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2718,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2738,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -2761,7 +2904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
@@ -2784,7 +2927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2807,7 +2950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2833,20 +2976,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2878,7 +3021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +3044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2921,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +3087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2967,7 +3110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2987,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3007,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -3030,7 +3173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -3053,7 +3196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3076,7 +3219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3102,20 +3245,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3147,7 +3290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3336,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -3216,7 +3359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
@@ -3236,7 +3379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -3259,7 +3402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3282,7 +3425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -3302,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3322,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>149</v>
       </c>
@@ -3345,7 +3488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>149</v>
       </c>
@@ -3365,7 +3508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>149</v>
       </c>
@@ -3388,7 +3531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>149</v>
       </c>
@@ -3411,7 +3554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>149</v>
       </c>
@@ -3431,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>149</v>
       </c>
@@ -3452,7 +3595,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>149</v>
       </c>
@@ -3476,7 +3619,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3499,7 +3642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3519,7 +3662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -3542,7 +3685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -3562,7 +3705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3588,7 +3731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3620,21 +3763,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3666,7 +3809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3689,7 +3832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3712,7 +3855,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -3739,7 +3882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -3766,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -3789,7 +3932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
@@ -3809,7 +3952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
@@ -3832,7 +3975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -3855,7 +3998,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -3875,7 +4018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -3895,7 +4038,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3918,7 +4061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3939,7 +4082,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -3962,7 +4105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -3982,7 +4125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -4005,7 +4148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
@@ -4031,30 +4174,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -4088,7 +4231,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
@@ -4116,7 +4259,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -4144,7 +4287,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,7 +4315,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -4198,7 +4341,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4212,7 +4355,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4232,25 +4375,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4279,7 +4422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -4299,7 +4442,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E6F74E-FF1F-3749-A2B5-F1C23F2CF529}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="480" windowWidth="21380" windowHeight="17540" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="480" windowWidth="21375" windowHeight="17535" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -29,8 +28,9 @@
     <sheet name="Ore" sheetId="20" r:id="rId14"/>
     <sheet name="EAF" sheetId="17" r:id="rId15"/>
     <sheet name="DRI" sheetId="18" r:id="rId16"/>
+    <sheet name="H2" sheetId="21" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="162">
   <si>
     <t>combustion</t>
   </si>
@@ -510,18 +510,6 @@
     <t xml:space="preserve"> outflows</t>
   </si>
   <si>
-    <t>reducant demand</t>
-  </si>
-  <si>
-    <t>reducing agent</t>
-  </si>
-  <si>
-    <t>reducing agent__use</t>
-  </si>
-  <si>
-    <t>reduced agent</t>
-  </si>
-  <si>
     <t>Fresh Metal Demand</t>
   </si>
   <si>
@@ -535,15 +523,31 @@
   </si>
   <si>
     <t>metal and CaO</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>hydrogen__use</t>
+  </si>
+  <si>
+    <t>hydrogen demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -647,42 +651,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,21 +998,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>138</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>138</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>138</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>138</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1243,16 +1248,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1307,25 +1312,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>121</v>
       </c>
@@ -1377,7 +1382,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>121</v>
       </c>
@@ -1400,7 +1405,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>122</v>
       </c>
@@ -1420,7 +1425,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>122</v>
       </c>
@@ -1440,7 +1445,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>135</v>
       </c>
@@ -1460,7 +1465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>135</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>126</v>
       </c>
@@ -1520,22 +1525,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1564,7 +1569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>135</v>
       </c>
@@ -1584,7 +1589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>135</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1647,25 +1652,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1717,7 +1722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1742,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1757,7 +1762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>88</v>
       </c>
@@ -1812,7 +1817,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1850,7 +1855,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>90</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -1893,7 +1898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>94</v>
       </c>
@@ -1917,32 +1922,32 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1994,10 +1999,10 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
         <v>80</v>
@@ -2017,10 +2022,10 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2040,10 +2045,10 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2063,13 +2068,13 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -2095,12 +2100,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2121,7 +2126,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -2164,7 +2169,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2187,7 +2192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2207,7 +2212,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2230,7 +2235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2253,7 +2258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -2276,7 +2281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2296,7 +2301,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2316,7 +2321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2345,19 +2350,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>152</v>
       </c>
@@ -2409,7 +2414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>152</v>
       </c>
@@ -2429,7 +2434,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>152</v>
@@ -2450,7 +2455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>148</v>
@@ -2468,16 +2473,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="22" t="s">
-        <v>155</v>
+      <c r="B6" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>4</v>
@@ -2485,19 +2490,19 @@
       <c r="F6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G6" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>157</v>
+      <c r="D7" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2512,17 +2517,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2554,7 +2573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2577,7 +2596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2600,7 +2619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2626,7 +2645,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +2671,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2675,7 +2694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2695,10 +2714,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2707,20 +2726,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2752,7 +2771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2775,7 +2794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2818,7 +2837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2841,7 +2860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2861,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2881,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -2904,7 +2923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
@@ -2927,7 +2946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2950,7 +2969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2976,20 +2995,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3021,7 +3040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3044,7 +3063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3064,7 +3083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3087,7 +3106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3110,7 +3129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3130,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3150,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -3173,7 +3192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -3196,7 +3215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3219,7 +3238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3245,20 +3264,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3290,7 +3309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3313,7 +3332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3336,7 +3355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -3359,7 +3378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
@@ -3379,7 +3398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -3402,7 +3421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3425,7 +3444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -3445,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3465,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>149</v>
       </c>
@@ -3488,7 +3507,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>149</v>
       </c>
@@ -3508,7 +3527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>149</v>
       </c>
@@ -3531,7 +3550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>149</v>
       </c>
@@ -3554,7 +3573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>149</v>
       </c>
@@ -3574,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>149</v>
       </c>
@@ -3595,7 +3614,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>149</v>
       </c>
@@ -3619,7 +3638,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3642,7 +3661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3662,7 +3681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -3685,7 +3704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -3705,7 +3724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3731,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3763,21 +3782,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3809,7 +3828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3832,7 +3851,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3855,7 +3874,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -3882,7 +3901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -3909,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -3932,7 +3951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
@@ -3952,7 +3971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
@@ -3975,7 +3994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -3998,7 +4017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -4018,7 +4037,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -4038,7 +4057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4080,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -4082,7 +4101,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -4105,7 +4124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -4125,7 +4144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -4148,7 +4167,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
@@ -4174,30 +4193,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -4231,7 +4250,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
@@ -4259,7 +4278,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -4287,7 +4306,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -4315,7 +4334,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -4341,7 +4360,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4355,7 +4374,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4375,25 +4394,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4422,7 +4441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -4442,7 +4461,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="480" windowWidth="21375" windowHeight="17535" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="7920" yWindow="480" windowWidth="21375" windowHeight="17535" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,17 @@
     <sheet name="Sinter" sheetId="5" r:id="rId4"/>
     <sheet name="Iron" sheetId="8" r:id="rId5"/>
     <sheet name="Steel" sheetId="3" r:id="rId6"/>
-    <sheet name="Finishing" sheetId="12" r:id="rId7"/>
-    <sheet name="Oxygen" sheetId="9" r:id="rId8"/>
-    <sheet name="Electricity" sheetId="10" r:id="rId9"/>
-    <sheet name="Heat" sheetId="16" r:id="rId10"/>
-    <sheet name="CO2 Capture" sheetId="13" r:id="rId11"/>
-    <sheet name="CO2 Storage" sheetId="14" r:id="rId12"/>
-    <sheet name="Fuel" sheetId="11" r:id="rId13"/>
-    <sheet name="Ore" sheetId="20" r:id="rId14"/>
-    <sheet name="EAF" sheetId="17" r:id="rId15"/>
-    <sheet name="DRI" sheetId="18" r:id="rId16"/>
-    <sheet name="H2" sheetId="21" r:id="rId17"/>
+    <sheet name="Finish" sheetId="12" r:id="rId7"/>
+    <sheet name="DRI" sheetId="18" r:id="rId8"/>
+    <sheet name="EAF" sheetId="17" r:id="rId9"/>
+    <sheet name="Oxygen" sheetId="9" r:id="rId10"/>
+    <sheet name="Gas" sheetId="21" r:id="rId11"/>
+    <sheet name="Electricity" sheetId="10" r:id="rId12"/>
+    <sheet name="Heat" sheetId="16" r:id="rId13"/>
+    <sheet name="CO2 Capture" sheetId="13" r:id="rId14"/>
+    <sheet name="CO2 Storage" sheetId="14" r:id="rId15"/>
+    <sheet name="Fuel" sheetId="11" r:id="rId16"/>
+    <sheet name="Ore" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="161">
   <si>
     <t>combustion</t>
   </si>
@@ -504,9 +504,6 @@
     <t>total metal demand</t>
   </si>
   <si>
-    <t>iron sponge</t>
-  </si>
-  <si>
     <t xml:space="preserve"> outflows</t>
   </si>
   <si>
@@ -525,29 +522,22 @@
     <t>metal and CaO</t>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>hydrogen__use</t>
-  </si>
-  <si>
-    <t>hydrogen demand</t>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>fuel energy demand</t>
+  </si>
+  <si>
+    <t>energy content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -651,37 +641,35 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1249,6 +1237,333 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1311,7 +1626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -1524,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1651,7 +1966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -1921,611 +2236,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2730,7 +2447,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4196,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4208,15 +3925,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -4247,238 +3967,571 @@
       <c r="J1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="F11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>78</v>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAFFFF1-5EE6-8447-B951-ED91CD4122C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="480" windowWidth="21375" windowHeight="17535" activeTab="6"/>
+    <workbookView xWindow="7420" yWindow="460" windowWidth="21380" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -35,18 +36,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="160">
   <si>
     <t>combustion</t>
   </si>
@@ -247,9 +242,6 @@
   </si>
   <si>
     <t>CaO in Sinter</t>
-  </si>
-  <si>
-    <t>Iron ore</t>
   </si>
   <si>
     <t>CaO in pellets</t>
@@ -534,7 +526,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -674,8 +666,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -986,21 +978,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1032,12 +1024,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>4</v>
@@ -1052,15 +1044,15 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>4</v>
@@ -1075,15 +1067,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>4</v>
@@ -1098,12 +1090,12 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1112,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>4</v>
@@ -1121,32 +1113,32 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>55</v>
@@ -1155,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
@@ -1164,30 +1156,30 @@
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1207,10 +1199,10 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1236,16 +1228,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1279,9 +1271,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -1290,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -1299,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1307,9 +1299,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
@@ -1318,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>40</v>
@@ -1327,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1335,12 +1327,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>40</v>
@@ -1363,9 +1355,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1389,7 +1381,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1403,7 +1395,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1423,16 +1415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1470,25 +1462,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1517,15 +1509,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>4</v>
@@ -1534,27 +1526,27 @@
         <v>8</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1563,16 +1555,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1601,24 +1593,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1627,25 +1619,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1674,15 +1666,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>4</v>
@@ -1691,15 +1683,15 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>38</v>
@@ -1708,27 +1700,27 @@
         <v>13</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>40</v>
@@ -1737,12 +1729,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>4</v>
@@ -1751,18 +1743,18 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -1780,7 +1772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -1797,15 +1789,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>38</v>
@@ -1814,18 +1806,18 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>40</v>
@@ -1840,22 +1832,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1884,15 +1876,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -1901,12 +1893,12 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -1915,18 +1907,18 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -1941,10 +1933,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1952,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -1967,25 +1959,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -2017,7 +2009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2025,19 +2017,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2045,19 +2037,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2071,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -2094,7 +2086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2102,21 +2094,21 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2132,7 +2124,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -2140,27 +2132,27 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -2170,21 +2162,21 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
         <v>55</v>
@@ -2193,35 +2185,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -2237,28 +2229,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2290,7 +2282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2313,7 +2305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2336,7 +2328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2362,7 +2354,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2388,7 +2380,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2411,7 +2403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2431,10 +2423,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2443,20 +2435,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2488,7 +2480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2499,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2511,18 +2503,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2531,12 +2523,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2551,21 +2543,21 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2574,21 +2566,21 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2597,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2617,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -2637,10 +2629,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
@@ -2651,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2660,10 +2652,10 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2686,7 +2678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2712,20 +2704,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2757,7 +2749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2768,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2780,18 +2772,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2800,12 +2792,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2820,15 +2812,15 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2843,15 +2835,15 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -2866,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2886,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -2909,7 +2901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2919,8 +2911,8 @@
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>67</v>
+      <c r="D9" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -2932,7 +2924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2955,7 +2947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2981,20 +2973,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3026,7 +3018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3049,7 +3041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3072,7 +3064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -3083,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -3092,21 +3084,21 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -3115,12 +3107,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -3135,21 +3127,21 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3158,21 +3150,21 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -3181,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3201,9 +3193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>59</v>
@@ -3212,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>4</v>
@@ -3221,21 +3213,21 @@
         <v>9</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -3244,12 +3236,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -3267,12 +3259,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -3290,9 +3282,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>51</v>
@@ -3310,9 +3302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>50</v>
@@ -3331,9 +3323,9 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>59</v>
@@ -3342,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
@@ -3351,11 +3343,11 @@
         <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3378,7 +3370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3398,7 +3390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -3421,7 +3413,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -3441,7 +3433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3467,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3499,21 +3491,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3545,7 +3537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3556,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -3565,10 +3557,10 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3579,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>4</v>
@@ -3588,15 +3580,15 @@
         <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>4</v>
@@ -3608,28 +3600,28 @@
         <v>2</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>1</v>
@@ -3645,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -3656,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -3668,18 +3660,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -3688,12 +3680,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -3708,15 +3700,15 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -3731,15 +3723,15 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -3751,10 +3743,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -3771,10 +3763,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3797,7 +3789,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3818,7 +3810,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -3861,9 +3853,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -3872,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
@@ -3881,21 +3873,21 @@
         <v>35</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
@@ -3910,33 +3902,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -3968,9 +3960,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>1</v>
@@ -3988,12 +3980,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -4005,21 +3997,21 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -4028,15 +4020,15 @@
         <v>9</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -4051,21 +4043,21 @@
         <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -4074,21 +4066,21 @@
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -4097,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4124,20 +4116,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -4169,7 +4161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4177,22 +4169,22 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4200,22 +4192,22 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4223,33 +4215,33 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -4258,24 +4250,24 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -4287,15 +4279,15 @@
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4304,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -4313,107 +4305,107 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -4425,12 +4417,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4439,21 +4431,21 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -4462,76 +4454,76 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAFFFF1-5EE6-8447-B951-ED91CD4122C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="460" windowWidth="21380" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7425" yWindow="465" windowWidth="21375" windowHeight="17535" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="161">
   <si>
     <t>combustion</t>
   </si>
@@ -521,15 +520,25 @@
   </si>
   <si>
     <t>energy content</t>
+  </si>
+  <si>
+    <t>CONSUMED inflows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -633,41 +642,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -978,21 +988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1103,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>137</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>137</v>
       </c>
@@ -1136,7 +1146,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>137</v>
       </c>
@@ -1159,7 +1169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>137</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1228,16 +1238,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1271,7 +1281,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>76</v>
       </c>
@@ -1299,7 +1309,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -1327,7 +1337,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -1355,7 +1365,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -1381,7 +1391,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1395,7 +1405,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1415,16 +1425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1462,25 +1472,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1509,7 +1519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1539,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1555,16 +1565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1593,7 +1603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1619,25 +1629,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1666,7 +1676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>120</v>
       </c>
@@ -1689,7 +1699,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>120</v>
       </c>
@@ -1712,7 +1722,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>121</v>
       </c>
@@ -1732,7 +1742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>121</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>134</v>
       </c>
@@ -1772,7 +1782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -1789,7 +1799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>134</v>
       </c>
@@ -1809,7 +1819,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>125</v>
       </c>
@@ -1832,22 +1842,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1876,7 +1886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>134</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>134</v>
       </c>
@@ -1916,7 +1926,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1959,25 +1969,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -2009,7 +2019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2029,7 +2039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2049,7 +2059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2069,7 +2079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -2086,7 +2096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2106,7 +2116,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
@@ -2124,7 +2134,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -2144,7 +2154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -2162,7 +2172,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>89</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>91</v>
       </c>
@@ -2205,7 +2215,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -2229,28 +2239,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2282,7 +2292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2328,7 +2338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2354,7 +2364,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2380,7 +2390,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2403,7 +2413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2423,10 +2433,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2435,20 +2445,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2480,7 +2490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2503,7 +2513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2546,7 +2556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2569,7 +2579,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2589,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
@@ -2655,7 +2665,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2678,7 +2688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2704,20 +2714,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2749,7 +2759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2772,7 +2782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2792,7 +2802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2815,7 +2825,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2838,7 +2848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -2901,7 +2911,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2924,7 +2934,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2947,7 +2957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2973,20 +2983,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3018,7 +3028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3097,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -3130,7 +3140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -3153,7 +3163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>148</v>
       </c>
@@ -3216,7 +3226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>148</v>
       </c>
@@ -3236,7 +3246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>148</v>
       </c>
@@ -3259,7 +3269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>148</v>
       </c>
@@ -3282,7 +3292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>148</v>
       </c>
@@ -3302,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>148</v>
       </c>
@@ -3323,7 +3333,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>148</v>
       </c>
@@ -3347,7 +3357,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3370,7 +3380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3390,7 +3400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -3433,7 +3443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3459,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3491,21 +3501,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3537,7 +3547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3560,7 +3570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3583,7 +3593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -3610,7 +3620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -3637,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -3660,7 +3670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
@@ -3680,7 +3690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
@@ -3703,7 +3713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -3726,7 +3736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -3746,7 +3756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -3766,7 +3776,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3789,7 +3799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3820,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -3833,7 +3843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -3853,7 +3863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>96</v>
       </c>
@@ -3876,7 +3886,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -3902,33 +3912,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>157</v>
       </c>
@@ -3980,7 +3990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>157</v>
       </c>
@@ -4000,104 +4010,95 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>106</v>
+      <c r="B7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
+      <c r="B8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>49</v>
@@ -4106,6 +4107,72 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4116,20 +4183,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -4161,7 +4228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4184,7 +4251,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4207,7 +4274,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4230,7 +4297,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4256,7 +4323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4282,7 +4349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4308,7 +4375,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -4331,7 +4398,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4351,7 +4418,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -4374,7 +4441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -4394,7 +4461,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -4417,7 +4484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -4440,7 +4507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -4463,7 +4530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -4483,7 +4550,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -4503,7 +4570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB473E74-CD51-BB43-BCFB-835F25CCA582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77AB212-485B-9B4D-BA5E-C16ED6BDA196}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="170">
   <si>
     <t>combustion</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Heat Demand</t>
   </si>
   <si>
-    <t>CO2__stored</t>
-  </si>
-  <si>
     <t>Losses</t>
   </si>
   <si>
@@ -455,15 +452,9 @@
     <t>total metal demand</t>
   </si>
   <si>
-    <t xml:space="preserve"> outflows</t>
-  </si>
-  <si>
     <t>Fresh Metal Demand</t>
   </si>
   <si>
-    <t>fresh metal</t>
-  </si>
-  <si>
     <t>Scrap Demand</t>
   </si>
   <si>
@@ -494,12 +485,6 @@
     <t>gasification</t>
   </si>
   <si>
-    <t>feedstock</t>
-  </si>
-  <si>
-    <t>feedstock losses</t>
-  </si>
-  <si>
     <t>losses</t>
   </si>
   <si>
@@ -522,6 +507,54 @@
   </si>
   <si>
     <t>Solvent sludge</t>
+  </si>
+  <si>
+    <t>wood (wet)</t>
+  </si>
+  <si>
+    <t>CO2__pure</t>
+  </si>
+  <si>
+    <t>CO2 pure</t>
+  </si>
+  <si>
+    <t>CO2 in flue gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solvent demand </t>
+  </si>
+  <si>
+    <t>reduced iron</t>
+  </si>
+  <si>
+    <t>stored CO2</t>
+  </si>
+  <si>
+    <t>feedstock demand</t>
+  </si>
+  <si>
+    <t>CONSUMED oxygen</t>
+  </si>
+  <si>
+    <t>returnValue</t>
+  </si>
+  <si>
+    <t>total CO2</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>total gas out</t>
+  </si>
+  <si>
+    <t>total feed in</t>
+  </si>
+  <si>
+    <t>CONSUMED losses</t>
+  </si>
+  <si>
+    <t>syngascopy</t>
   </si>
 </sst>
 </file>
@@ -644,7 +677,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -666,11 +699,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>4</v>
@@ -1060,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>4</v>
@@ -1083,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>4</v>
@@ -1103,7 +1137,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1126,7 +1160,7 @@
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>87</v>
@@ -1135,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -1146,7 +1180,7 @@
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>54</v>
@@ -1155,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>4</v>
@@ -1169,16 +1203,16 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>4</v>
@@ -1237,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1278,67 +1312,65 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="A2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="G2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>144</v>
+      <c r="A4" s="1"/>
+      <c r="B4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -1346,27 +1378,27 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>143</v>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
-        <v>144</v>
+      <c r="B5" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
+      <c r="D5" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>68</v>
@@ -1375,36 +1407,34 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>47</v>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -1416,103 +1446,263 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>147</v>
-      </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
+      <c r="G10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" t="s">
-        <v>83</v>
+      <c r="G11" s="25" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1762,10 +1952,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -1774,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1785,7 +1975,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>4</v>
@@ -1853,7 +2043,7 @@
         <v>111</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>77</v>
@@ -1866,10 +2056,10 @@
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1915,7 +2105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1962,7 +2154,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2018,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
@@ -2052,7 +2244,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -2071,7 +2263,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2092,7 +2284,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -2118,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>39</v>
@@ -2128,48 +2320,46 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>155</v>
+      <c r="A10" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>157</v>
+      <c r="G10" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="G11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2180,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2226,13 +2416,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2241,12 +2431,12 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -2261,12 +2451,12 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -2281,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2311,7 +2501,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2977,7 +3167,7 @@
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -3042,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3261,7 +3451,7 @@
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>58</v>
@@ -3284,7 +3474,7 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>97</v>
@@ -3304,7 +3494,7 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>100</v>
@@ -3327,7 +3517,7 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>100</v>
@@ -3350,7 +3540,7 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>50</v>
@@ -3370,7 +3560,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>49</v>
@@ -3391,7 +3581,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>58</v>
@@ -3409,7 +3599,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3614,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -3646,7 +3836,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3670,7 +3860,7 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>2</v>
@@ -3971,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4001,58 +4191,58 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>151</v>
+      <c r="C2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>151</v>
+      <c r="G3" s="22" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>33</v>
+      <c r="B4" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -4068,7 +4258,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
@@ -4088,8 +4278,8 @@
       <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>33</v>
+      <c r="B6" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -4103,12 +4293,12 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
-        <v>83</v>
+      <c r="G6" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
@@ -4128,8 +4318,8 @@
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>33</v>
+      <c r="B8" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>1</v>
@@ -4176,11 +4366,12 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4217,8 +4408,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
-        <v>142</v>
+      <c r="A2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>1</v>
@@ -4237,11 +4431,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>142</v>
+      <c r="B3" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -4257,7 +4451,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
@@ -4277,8 +4471,8 @@
       <c r="A5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>142</v>
+      <c r="B5" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -4297,7 +4491,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C6" t="s">
@@ -4317,14 +4511,14 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>142</v>
+      <c r="B7" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>144</v>
+      <c r="D7" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -4332,16 +4526,16 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>143</v>
+      <c r="G7" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>144</v>
+      <c r="B8" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -4363,13 +4557,13 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>144</v>
+      <c r="B9" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4392,7 +4586,7 @@
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4424,16 +4618,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>146</v>
+      <c r="C12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1</v>
@@ -4441,8 +4635,8 @@
       <c r="F12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>142</v>
+      <c r="H12" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>1</v>
@@ -4456,10 +4650,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4508,10 +4702,10 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
         <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>78</v>
@@ -4520,21 +4714,18 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>78</v>
@@ -4543,7 +4734,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4554,7 +4745,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -4566,15 +4757,12 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -4588,17 +4776,14 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
-        <v>138</v>
+      <c r="H5" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="I5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -4606,7 +4791,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -4622,11 +4807,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4635,7 +4817,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -4644,7 +4826,7 @@
         <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4655,30 +4837,27 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -4687,7 +4866,7 @@
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4698,7 +4877,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -4714,9 +4893,6 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -4727,24 +4903,21 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -4757,11 +4930,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4780,11 +4950,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -4803,9 +4970,6 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -4813,19 +4977,16 @@
         <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -4833,10 +4994,10 @@
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -4850,7 +5011,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
@@ -4863,6 +5024,23 @@
       </c>
       <c r="G17" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77AB212-485B-9B4D-BA5E-C16ED6BDA196}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA5DBD2-B754-CF4A-860D-9F2B9870CAE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="176">
   <si>
     <t>combustion</t>
   </si>
@@ -509,18 +509,12 @@
     <t>Solvent sludge</t>
   </si>
   <si>
-    <t>wood (wet)</t>
-  </si>
-  <si>
     <t>CO2__pure</t>
   </si>
   <si>
     <t>CO2 pure</t>
   </si>
   <si>
-    <t>CO2 in flue gas</t>
-  </si>
-  <si>
     <t xml:space="preserve">solvent demand </t>
   </si>
   <si>
@@ -533,9 +527,6 @@
     <t>feedstock demand</t>
   </si>
   <si>
-    <t>CONSUMED oxygen</t>
-  </si>
-  <si>
     <t>returnValue</t>
   </si>
   <si>
@@ -555,6 +546,33 @@
   </si>
   <si>
     <t>syngascopy</t>
+  </si>
+  <si>
+    <t>energy recovered (electricity equiv)</t>
+  </si>
+  <si>
+    <t>wood (20% moisture)</t>
+  </si>
+  <si>
+    <t>CO2 to flue gas</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>H2O demand</t>
+  </si>
+  <si>
+    <t>total gas in</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>air demand</t>
+  </si>
+  <si>
+    <t>O2air</t>
   </si>
 </sst>
 </file>
@@ -1271,13 +1289,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
@@ -1321,8 +1343,8 @@
       <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>154</v>
+      <c r="D2" t="s">
+        <v>168</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>2</v>
@@ -1331,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -1510,7 +1532,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>144</v>
@@ -1519,19 +1541,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>156</v>
+      <c r="G11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
       <c r="B12" s="22" t="s">
         <v>144</v>
       </c>
@@ -1539,169 +1564,258 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>150</v>
+      <c r="A13" t="s">
+        <v>106</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="E15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23" t="s">
+      <c r="G15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="C16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="E16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>146</v>
       </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
         <v>12</v>
       </c>
-      <c r="I15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
-        <v>167</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
         <v>166</v>
       </c>
       <c r="I19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1897,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1985,6 +2099,26 @@
       </c>
       <c r="G3" s="10" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2556,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2456,7 +2590,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -4412,7 +4546,7 @@
         <v>139</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>1</v>
@@ -4432,7 +4566,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -4472,7 +4606,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -4512,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
@@ -4636,7 +4770,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>1</v>
@@ -4653,7 +4787,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4725,7 +4859,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
         <v>78</v>
@@ -4777,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
         <v>79</v>
@@ -5014,7 +5148,7 @@
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>79</v>
@@ -5028,19 +5162,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
         <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA5DBD2-B754-CF4A-860D-9F2B9870CAE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <sheet name="CO2 Capture" sheetId="13" r:id="rId14"/>
     <sheet name="CO2 Storage" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="179">
   <si>
     <t>combustion</t>
   </si>
@@ -551,9 +550,6 @@
     <t>energy recovered (electricity equiv)</t>
   </si>
   <si>
-    <t>wood (20% moisture)</t>
-  </si>
-  <si>
     <t>CO2 to flue gas</t>
   </si>
   <si>
@@ -573,12 +569,24 @@
   </si>
   <si>
     <t>O2air</t>
+  </si>
+  <si>
+    <t>feedstock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inflows</t>
+  </si>
+  <si>
+    <t>CO2 transport **IN TKM**</t>
+  </si>
+  <si>
+    <t>Pipeline Distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -726,8 +734,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,21 +1046,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1084,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1288,20 +1296,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>2</v>
@@ -1359,7 +1367,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1383,7 +1391,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1405,7 +1413,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1427,7 +1435,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -1447,7 +1455,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -1467,7 +1475,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1490,7 +1498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1530,9 +1538,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>144</v>
@@ -1541,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -1550,12 +1558,12 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>144</v>
@@ -1564,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -1573,10 +1581,10 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -1616,10 +1624,10 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23" t="s">
         <v>151</v>
@@ -1661,7 +1669,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -1704,7 +1712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>161</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1744,21 +1752,21 @@
         <v>162</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1767,15 +1775,15 @@
         <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1790,13 +1798,13 @@
         <v>162</v>
       </c>
       <c r="H22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>164</v>
       </c>
@@ -1825,14 +1833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1866,7 +1874,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -1894,7 +1902,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1922,7 +1930,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1950,7 +1958,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1976,7 +1984,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1990,7 +1998,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2010,26 +2018,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2081,7 +2089,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2127,14 +2135,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2186,7 +2194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2209,7 +2217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2236,26 +2244,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -2313,7 +2321,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -2336,7 +2344,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -2356,7 +2364,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -2376,7 +2384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>119</v>
       </c>
@@ -2396,7 +2404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
@@ -2416,7 +2424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>119</v>
       </c>
@@ -2436,7 +2444,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -2476,7 +2484,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="23" t="s">
         <v>151</v>
@@ -2501,22 +2509,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2548,7 +2556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -2588,7 +2596,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>158</v>
       </c>
@@ -2608,7 +2616,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -2622,6 +2630,43 @@
         <v>37</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2631,16 +2676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2672,7 +2717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -2695,7 +2740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2718,7 +2763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2744,7 +2789,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +2815,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2793,7 +2838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2813,10 +2858,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2825,20 +2870,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2870,7 +2915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +2938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2913,7 +2958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +2981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2959,7 +3004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -3022,7 +3067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -3045,7 +3090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3068,7 +3113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3094,20 +3139,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3139,7 +3184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3162,7 +3207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3182,7 +3227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3205,7 +3250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3273,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3248,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3268,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -3291,7 +3336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -3314,7 +3359,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3337,7 +3382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3363,20 +3408,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3408,7 +3453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3431,7 +3476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3454,7 +3499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -3477,7 +3522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3497,7 +3542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3520,7 +3565,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -3543,7 +3588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -3563,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -3583,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -3606,7 +3651,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -3626,7 +3671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -3649,7 +3694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -3672,7 +3717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -3692,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -3713,7 +3758,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -3737,7 +3782,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3760,7 +3805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -3780,7 +3825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -3803,7 +3848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -3823,7 +3868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -3849,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -3881,21 +3926,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3927,7 +3972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3950,7 +3995,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3973,7 +4018,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -4000,7 +4045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -4027,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -4050,7 +4095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -4070,7 +4115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -4093,7 +4138,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -4116,7 +4161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -4136,7 +4181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -4156,7 +4201,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -4179,7 +4224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4200,7 +4245,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4223,7 +4268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -4243,7 +4288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -4266,7 +4311,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -4292,16 +4337,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4324,7 +4369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -4347,7 +4392,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -4368,7 +4413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4391,7 +4436,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>19</v>
       </c>
@@ -4408,7 +4453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -4431,7 +4476,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>73</v>
       </c>
@@ -4448,7 +4493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -4471,7 +4516,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>38</v>
@@ -4496,20 +4541,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4541,7 +4586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -4564,7 +4609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>157</v>
       </c>
@@ -4584,7 +4629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -4601,7 +4646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -4624,7 +4669,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -4641,7 +4686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +4709,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4687,7 +4732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4710,7 +4755,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4730,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4750,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -4783,20 +4828,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4828,7 +4873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4851,7 +4896,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -4871,7 +4916,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4894,7 +4939,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -4917,7 +4962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -4940,7 +4985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -4963,7 +5008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4986,7 +5031,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5003,7 +5048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5026,7 +5071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -5043,7 +5088,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -5063,7 +5108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -5083,7 +5128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -5103,7 +5148,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -5120,7 +5165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -5137,7 +5182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -5160,7 +5205,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>73</v>
       </c>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4847A04-ECFF-CE4A-93CF-83DD5F4BEAE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="6100" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -33,12 +34,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -577,16 +572,16 @@
     <t xml:space="preserve"> inflows</t>
   </si>
   <si>
-    <t>CO2 transport **IN TKM**</t>
-  </si>
-  <si>
     <t>Pipeline Distance</t>
+  </si>
+  <si>
+    <t>Transport of CO2  **IN TKM**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -734,8 +729,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1046,21 +1041,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1092,7 +1087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +1156,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1184,7 +1179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1204,7 +1199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1227,7 +1222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1247,7 +1242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1296,20 +1291,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1341,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1367,7 +1362,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1386,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1413,7 +1408,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1435,7 +1430,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -1455,7 +1450,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -1475,7 +1470,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -1515,7 +1510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -1561,7 +1556,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -1584,7 +1579,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1607,7 +1602,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -1627,7 +1622,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -1650,7 +1645,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="23" t="s">
         <v>151</v>
@@ -1669,7 +1664,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -1695,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -1712,7 +1707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>161</v>
       </c>
@@ -1735,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -1758,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>174</v>
       </c>
@@ -1781,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>175</v>
       </c>
@@ -1804,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>164</v>
       </c>
@@ -1833,14 +1828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1874,7 +1869,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -1902,7 +1897,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1930,7 +1925,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1958,7 +1953,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1984,7 +1979,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1998,7 +1993,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2018,26 +2013,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2069,7 +2064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2089,7 +2084,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2109,7 +2104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2135,14 +2130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2194,7 +2189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2217,7 +2212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2244,26 +2239,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2295,7 +2290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -2321,7 +2316,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -2344,7 +2339,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -2384,7 +2379,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>119</v>
       </c>
@@ -2404,7 +2399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
@@ -2424,7 +2419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>119</v>
       </c>
@@ -2444,7 +2439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -2461,7 +2456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -2484,7 +2479,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="23" t="s">
         <v>151</v>
@@ -2509,22 +2504,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2576,7 +2571,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -2596,7 +2591,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>158</v>
       </c>
@@ -2616,7 +2611,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -2633,7 +2628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -2641,7 +2636,7 @@
         <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -2650,18 +2645,18 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
@@ -2676,16 +2671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2717,7 +2712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -2740,7 +2735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2763,7 +2758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2789,7 +2784,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2810,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2838,7 +2833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2858,10 +2853,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2870,20 +2865,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2915,7 +2910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2938,7 +2933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2958,7 +2953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2981,7 +2976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3004,7 +2999,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3024,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3044,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -3067,7 +3062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -3090,7 +3085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3113,7 +3108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3139,20 +3134,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3184,7 +3179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3207,7 +3202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3227,7 +3222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3250,7 +3245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3273,7 +3268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3293,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3313,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -3336,7 +3331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -3359,7 +3354,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3382,7 +3377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3408,20 +3403,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3453,7 +3448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3476,7 +3471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3499,7 +3494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -3522,7 +3517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3542,7 +3537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -3588,7 +3583,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -3608,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -3628,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -3651,7 +3646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -3671,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -3694,7 +3689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -3717,7 +3712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -3737,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -3758,7 +3753,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -3782,7 +3777,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3805,7 +3800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -3825,7 +3820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -3848,7 +3843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -3868,7 +3863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -3894,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -3926,21 +3921,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3972,7 +3967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3995,7 +3990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4018,7 +4013,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -4045,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -4072,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -4095,7 +4090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -4138,7 +4133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -4161,7 +4156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -4181,7 +4176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -4201,7 +4196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -4224,7 +4219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4245,7 +4240,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4268,7 +4263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -4288,7 +4283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -4311,7 +4306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -4337,16 +4332,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4369,7 +4364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -4413,7 +4408,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4436,7 +4431,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
         <v>19</v>
       </c>
@@ -4453,7 +4448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -4476,7 +4471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>73</v>
       </c>
@@ -4493,7 +4488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -4516,7 +4511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>38</v>
@@ -4541,20 +4536,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4586,7 +4581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -4609,7 +4604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>157</v>
       </c>
@@ -4629,7 +4624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -4646,7 +4641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -4669,7 +4664,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -4686,7 +4681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4709,7 +4704,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4732,7 +4727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4755,7 +4750,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4775,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4795,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -4828,20 +4823,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4873,7 +4868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4896,7 +4891,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -4916,7 +4911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4939,7 +4934,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -4962,7 +4957,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -4985,7 +4980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5048,7 +5043,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5071,7 +5066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -5088,7 +5083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -5108,7 +5103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -5128,7 +5123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -5148,7 +5143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -5165,7 +5160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -5182,7 +5177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -5205,7 +5200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4847A04-ECFF-CE4A-93CF-83DD5F4BEAE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="179">
   <si>
     <t>combustion</t>
   </si>
@@ -494,15 +493,9 @@
     <t>solvent</t>
   </si>
   <si>
-    <t>Solvent (MEA)</t>
-  </si>
-  <si>
     <t>Solvent demand</t>
   </si>
   <si>
-    <t>Solvent sludge</t>
-  </si>
-  <si>
     <t>CO2__pure</t>
   </si>
   <si>
@@ -569,22 +562,49 @@
     <t>feedstock</t>
   </si>
   <si>
-    <t xml:space="preserve"> inflows</t>
-  </si>
-  <si>
     <t>Pipeline Distance</t>
   </si>
   <si>
     <t>Transport of CO2  **IN TKM**</t>
+  </si>
+  <si>
+    <t>DISPOSAL OF hot rolled coil</t>
+  </si>
+  <si>
+    <t>solvent (MEA)</t>
+  </si>
+  <si>
+    <t>solvent sludge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -695,42 +715,46 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1041,21 +1065,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1087,7 +1111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1180,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1179,7 +1203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1199,7 +1223,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1222,7 +1246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1242,7 +1266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1265,7 +1289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1291,20 +1315,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1347,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>2</v>
@@ -1356,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1386,7 +1410,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1408,7 +1432,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1430,7 +1454,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -1450,7 +1474,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -1470,7 +1494,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1493,7 +1517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -1510,7 +1534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1533,9 +1557,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>144</v>
@@ -1544,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -1553,12 +1577,12 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>172</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>144</v>
@@ -1567,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -1576,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1590,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -1599,10 +1623,10 @@
         <v>34</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -1619,10 +1643,10 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -1632,8 +1656,8 @@
       <c r="C15" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>151</v>
+      <c r="D15" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>2</v>
@@ -1642,19 +1666,19 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="23" t="s">
-        <v>151</v>
+      <c r="B16" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>153</v>
+      <c r="D16" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>1</v>
@@ -1664,24 +1688,24 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -1690,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -1698,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1707,30 +1731,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>161</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -1738,76 +1762,76 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H21" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -1816,7 +1840,7 @@
         <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I23" t="s">
         <v>4</v>
@@ -1828,14 +1852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1869,7 +1893,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -1897,7 +1921,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1925,7 +1949,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1953,7 +1977,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1979,7 +2003,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1993,7 +2017,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2013,26 +2037,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2064,7 +2088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2080,11 +2104,11 @@
       <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2104,15 +2128,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>79</v>
@@ -2130,14 +2154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2169,7 +2193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2189,7 +2213,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2212,7 +2236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2239,26 +2263,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2290,7 +2314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -2316,7 +2340,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -2339,7 +2363,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -2359,7 +2383,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -2379,7 +2403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>119</v>
       </c>
@@ -2399,7 +2423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
@@ -2419,7 +2443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>119</v>
       </c>
@@ -2439,7 +2463,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -2456,7 +2480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -2466,8 +2490,8 @@
       <c r="C10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>151</v>
+      <c r="D10" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>2</v>
@@ -2476,19 +2500,19 @@
         <v>34</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
-      <c r="B11" s="23" t="s">
-        <v>151</v>
+      <c r="B11" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>153</v>
+      <c r="D11" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>1</v>
@@ -2504,22 +2528,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2551,7 +2575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2559,7 +2583,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2571,7 +2595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -2591,9 +2615,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -2611,7 +2635,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -2628,15 +2652,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -2645,24 +2669,44 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2671,16 +2715,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2712,7 +2756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -2735,7 +2779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2758,7 +2802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2784,7 +2828,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2810,7 +2854,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2833,7 +2877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2853,10 +2897,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2865,20 +2909,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2910,7 +2954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2933,7 +2977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2953,7 +2997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2976,7 +3020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +3043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3019,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3039,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -3062,7 +3106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -3085,7 +3129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3108,7 +3152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3134,20 +3178,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3179,7 +3223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3202,7 +3246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3222,7 +3266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3245,7 +3289,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3268,7 +3312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3288,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3308,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -3331,7 +3375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -3354,7 +3398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3377,7 +3421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3403,20 +3447,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3448,7 +3492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3471,7 +3515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3494,7 +3538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -3517,7 +3561,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3537,7 +3581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3560,7 +3604,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -3583,7 +3627,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -3603,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -3623,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -3646,7 +3690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -3666,7 +3710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -3689,7 +3733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -3712,7 +3756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -3732,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -3753,7 +3797,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -3777,7 +3821,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3800,7 +3844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -3820,7 +3864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -3843,7 +3887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -3863,7 +3907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -3889,7 +3933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -3921,21 +3965,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3967,7 +4011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3990,7 +4034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4013,7 +4057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -4040,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -4067,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -4090,7 +4134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -4110,7 +4154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -4133,7 +4177,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -4156,7 +4200,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -4176,7 +4220,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -4196,7 +4240,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -4219,7 +4263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4240,7 +4284,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4263,7 +4307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -4283,7 +4327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -4306,7 +4350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -4332,16 +4376,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4364,7 +4408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -4387,7 +4431,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -4408,49 +4452,47 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>73</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>147</v>
@@ -4459,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -4467,19 +4509,19 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -4488,47 +4530,87 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>10</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4536,20 +4618,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4581,12 +4663,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>1</v>
@@ -4604,9 +4686,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -4624,7 +4706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -4641,12 +4723,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -4664,7 +4746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -4681,12 +4763,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
@@ -4704,7 +4786,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4727,7 +4809,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4750,7 +4832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4770,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4790,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -4810,7 +4892,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>1</v>
@@ -4823,20 +4905,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4868,7 +4950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4891,7 +4973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -4899,7 +4981,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
         <v>78</v>
@@ -4911,7 +4993,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4934,7 +5016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -4951,13 +5033,13 @@
         <v>5</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -4980,7 +5062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -5003,7 +5085,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5026,7 +5108,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5043,7 +5125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5066,7 +5148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -5083,7 +5165,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -5103,7 +5185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -5123,7 +5205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -5143,7 +5225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -5160,7 +5242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -5177,7 +5259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -5200,7 +5282,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -5214,7 +5296,7 @@
         <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="183">
   <si>
     <t>combustion</t>
   </si>
@@ -575,15 +575,34 @@
   </si>
   <si>
     <t>solvent sludge</t>
+  </si>
+  <si>
+    <t>factory use</t>
+  </si>
+  <si>
+    <t>coke oven use</t>
+  </si>
+  <si>
+    <t>CONSUMED coke oven use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSUMED </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -715,41 +734,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F15" sqref="A15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1309,6 +1329,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1316,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A24" sqref="A24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1846,6 +1906,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1855,7 +1949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2004,12 +2100,20 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2018,12 +2122,22 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2038,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,6 +2262,40 @@
         <v>117</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2155,9 +2303,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2256,6 +2406,40 @@
         <v>14</v>
       </c>
       <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2267,7 +2451,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,7 +2903,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2898,9 +3082,39 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -2910,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3172,6 +3386,40 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3179,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3441,6 +3689,40 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3448,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A23" sqref="A23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3959,6 +4241,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3966,10 +4282,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A18" sqref="A18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4370,6 +4686,40 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4377,10 +4727,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4612,6 +4962,40 @@
       </c>
       <c r="G11" s="5"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4619,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A13" sqref="A13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4898,6 +5282,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4906,10 +5324,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A19" sqref="A19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5299,6 +5717,40 @@
         <v>158</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="194">
   <si>
     <t>combustion</t>
   </si>
@@ -587,15 +587,55 @@
   </si>
   <si>
     <t xml:space="preserve">CONSUMED </t>
+  </si>
+  <si>
+    <t>lime kiln use</t>
+  </si>
+  <si>
+    <t>pellet factory use</t>
+  </si>
+  <si>
+    <t>sinter factory use</t>
+  </si>
+  <si>
+    <t>BF factory use</t>
+  </si>
+  <si>
+    <t>BOF use</t>
+  </si>
+  <si>
+    <t>hot rolling factory use</t>
+  </si>
+  <si>
+    <t>EAF use</t>
+  </si>
+  <si>
+    <t>syngas factory use</t>
+  </si>
+  <si>
+    <t>O2 factory use</t>
+  </si>
+  <si>
+    <t>electricity turbine use</t>
+  </si>
+  <si>
+    <t>heat turbine use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -734,41 +774,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1089,7 +1130,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="A15:F16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1404,7 @@
         <v>181</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>14</v>
@@ -1379,7 +1420,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1910,11 +1951,15 @@
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="C24" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" t="s">
+        <v>190</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +1971,9 @@
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +1981,7 @@
         <v>182</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>14</v>
@@ -1950,7 +1997,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2103,11 +2150,15 @@
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2125,7 +2176,9 @@
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
@@ -2133,7 +2186,7 @@
         <v>182</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>14</v>
@@ -2155,7 +2208,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,15 +2315,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2278,19 +2335,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>182</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>14</v>
@@ -2306,7 +2365,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2411,11 +2470,15 @@
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2427,7 +2490,9 @@
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2435,7 +2500,7 @@
         <v>182</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>14</v>
@@ -2903,7 +2968,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3085,11 +3150,15 @@
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3102,7 +3171,9 @@
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
@@ -3110,7 +3181,7 @@
         <v>182</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>14</v>
@@ -3127,7 +3198,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3390,11 +3461,15 @@
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3406,7 +3481,9 @@
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
@@ -3414,7 +3491,7 @@
         <v>182</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>14</v>
@@ -3430,7 +3507,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3693,11 +3770,15 @@
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3709,15 +3790,17 @@
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>2</v>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>14</v>
@@ -3733,7 +3816,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4245,11 +4328,15 @@
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
       <c r="C23" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>2</v>
       </c>
@@ -4269,7 +4356,7 @@
         <v>182</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>14</v>
@@ -4284,8 +4371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4690,11 +4777,15 @@
       <c r="A18" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4706,7 +4797,9 @@
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
@@ -4714,7 +4807,7 @@
         <v>182</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>14</v>
@@ -4730,7 +4823,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4966,11 +5059,15 @@
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
@@ -4982,7 +5079,9 @@
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
@@ -4990,7 +5089,7 @@
         <v>182</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>14</v>
@@ -5006,7 +5105,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5286,11 +5385,15 @@
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="C13" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
@@ -5302,7 +5405,9 @@
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
@@ -5310,7 +5415,7 @@
         <v>182</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>14</v>
@@ -5327,7 +5432,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5721,11 +5826,15 @@
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
       <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
@@ -5737,7 +5846,9 @@
       <c r="A20" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
@@ -5745,7 +5856,7 @@
         <v>182</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>14</v>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA077EA-3BD1-514E-ABBD-C0721C3A42ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" activeTab="12"/>
+    <workbookView xWindow="6100" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="194">
   <si>
     <t>combustion</t>
   </si>
@@ -625,7 +626,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -814,8 +815,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,21 +1127,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -1416,20 +1417,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1487,7 +1488,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1512,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1533,7 +1534,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1555,7 +1556,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -1575,7 +1576,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -1595,7 +1596,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="28" t="s">
         <v>177</v>
@@ -1789,7 +1790,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>159</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>172</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>173</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>162</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -1993,16 +1994,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2036,7 +2037,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -2064,7 +2065,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2092,7 +2093,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2120,7 +2121,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2146,7 +2147,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2172,7 +2173,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -2204,26 +2205,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2361,16 +2362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2512,26 +2513,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -2589,7 +2590,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -2612,7 +2613,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>119</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>119</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -2777,22 +2778,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>156</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>175</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -2964,16 +2965,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3077,7 +3078,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3103,7 +3104,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -3167,7 +3168,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -3194,20 +3195,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -3503,20 +3504,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -3812,20 +3813,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -4032,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -4162,7 +4163,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -4186,7 +4187,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -4324,12 +4325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B23" t="s">
-        <v>186</v>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>1</v>
@@ -4344,11 +4345,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
@@ -4368,21 +4371,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4687,7 +4690,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>179</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -4819,16 +4822,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -4895,7 +4898,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
         <v>147</v>
@@ -4914,7 +4917,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
         <v>176</v>
@@ -4933,7 +4936,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -5055,7 +5058,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -5101,20 +5104,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -5169,7 +5172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
@@ -5428,20 +5431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>179</v>
       </c>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA077EA-3BD1-514E-ABBD-C0721C3A42ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -20,14 +19,15 @@
     <sheet name="Iron" sheetId="8" r:id="rId5"/>
     <sheet name="Steel" sheetId="3" r:id="rId6"/>
     <sheet name="Finish" sheetId="12" r:id="rId7"/>
-    <sheet name="DRI" sheetId="18" r:id="rId8"/>
-    <sheet name="EAF" sheetId="17" r:id="rId9"/>
-    <sheet name="Syngas" sheetId="21" r:id="rId10"/>
-    <sheet name="Oxygen" sheetId="9" r:id="rId11"/>
-    <sheet name="Electricity" sheetId="10" r:id="rId12"/>
-    <sheet name="Heat" sheetId="16" r:id="rId13"/>
-    <sheet name="CO2 Capture" sheetId="13" r:id="rId14"/>
-    <sheet name="CO2 Storage" sheetId="14" r:id="rId15"/>
+    <sheet name="Charcoal" sheetId="22" r:id="rId8"/>
+    <sheet name="DRI" sheetId="18" r:id="rId9"/>
+    <sheet name="EAF" sheetId="17" r:id="rId10"/>
+    <sheet name="Syngas" sheetId="21" r:id="rId11"/>
+    <sheet name="Oxygen" sheetId="9" r:id="rId12"/>
+    <sheet name="Electricity" sheetId="10" r:id="rId13"/>
+    <sheet name="Heat" sheetId="16" r:id="rId14"/>
+    <sheet name="CO2 Capture" sheetId="13" r:id="rId15"/>
+    <sheet name="CO2 Storage" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="194">
   <si>
     <t>combustion</t>
   </si>
@@ -626,7 +626,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -815,8 +815,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1127,21 +1127,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -1417,20 +1417,460 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1462,7 +1902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1488,7 +1928,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1952,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1534,7 +1974,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1556,7 +1996,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -1576,7 +2016,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -1596,7 +2036,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +2059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +2076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1659,7 +2099,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -1682,7 +2122,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -1705,7 +2145,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1728,7 +2168,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -1748,7 +2188,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -1771,7 +2211,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="28" t="s">
         <v>177</v>
@@ -1790,7 +2230,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -1816,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -1833,7 +2273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>159</v>
       </c>
@@ -1856,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -1879,7 +2319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>172</v>
       </c>
@@ -1902,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>173</v>
       </c>
@@ -1925,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>162</v>
       </c>
@@ -1948,7 +2388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -1968,7 +2408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -1993,17 +2433,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2477,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -2065,7 +2505,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2093,7 +2533,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2121,7 +2561,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2147,7 +2587,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2173,7 +2613,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -2204,27 +2644,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2256,7 +2696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2276,7 +2716,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2296,7 +2736,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2756,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
@@ -2336,7 +2776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2347,157 +2787,6 @@
         <v>2</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="31" t="s">
         <v>182</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -2513,26 +2802,177 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2564,7 +3004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -2590,7 +3030,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -2613,7 +3053,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -2633,7 +3073,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -2653,7 +3093,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>119</v>
       </c>
@@ -2673,7 +3113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
@@ -2693,7 +3133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>119</v>
       </c>
@@ -2713,7 +3153,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -2730,7 +3170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -2753,7 +3193,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -2777,23 +3217,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2825,7 +3265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2845,7 +3285,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -2865,7 +3305,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>156</v>
       </c>
@@ -2885,7 +3325,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -2902,7 +3342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -2922,7 +3362,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>175</v>
       </c>
@@ -2939,7 +3379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -2965,16 +3405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3006,7 +3446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -3029,7 +3469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3052,7 +3492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3078,7 +3518,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3104,7 +3544,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -3127,7 +3567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3147,7 +3587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -3168,7 +3608,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -3195,20 +3635,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3240,7 +3680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3263,7 +3703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3283,7 +3723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3306,7 +3746,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +3769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3349,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3369,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -3392,7 +3832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -3415,7 +3855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3438,7 +3878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3458,7 +3898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -3478,7 +3918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -3504,20 +3944,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3549,7 +3989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3572,7 +4012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3592,7 +4032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3615,7 +4055,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3638,7 +4078,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3658,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3678,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -3701,7 +4141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -3724,7 +4164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3747,7 +4187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3767,7 +4207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -3787,7 +4227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -3813,20 +4253,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3858,7 +4298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3881,7 +4321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +4344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -3927,7 +4367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3947,7 +4387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3970,7 +4410,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -3993,7 +4433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4013,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -4033,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -4056,7 +4496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -4076,7 +4516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -4099,7 +4539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -4122,7 +4562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -4142,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -4163,7 +4603,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -4187,7 +4627,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4210,7 +4650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -4230,7 +4670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -4253,7 +4693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -4273,7 +4713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -4299,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -4325,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
@@ -4345,7 +4785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -4371,21 +4811,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4417,7 +4857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4440,7 +4880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4463,7 +4903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -4490,7 +4930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -4517,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -4540,7 +4980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -4560,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -4583,7 +5023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -4606,7 +5046,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -4626,7 +5066,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -4646,7 +5086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -4669,7 +5109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4690,7 +5130,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4713,7 +5153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -4733,7 +5173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -4756,7 +5196,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -4776,7 +5216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>179</v>
       </c>
@@ -4796,7 +5236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -4822,16 +5262,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4854,7 +5294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -4877,7 +5317,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -4898,7 +5338,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
         <v>147</v>
@@ -4917,7 +5357,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
         <v>176</v>
@@ -4936,7 +5376,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4959,7 +5399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
@@ -4976,7 +5416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -4999,7 +5439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
@@ -5016,7 +5456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -5039,7 +5479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -5058,7 +5498,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -5078,7 +5518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -5104,20 +5544,58 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5149,7 +5627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -5172,7 +5650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
@@ -5192,7 +5670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5209,7 +5687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -5232,7 +5710,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -5249,7 +5727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5272,7 +5750,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5295,7 +5773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -5318,7 +5796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5338,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -5358,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -5384,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -5404,7 +5882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
@@ -5428,444 +5906,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="210">
   <si>
     <t>combustion</t>
   </si>
@@ -587,9 +587,6 @@
     <t>CONSUMED coke oven use</t>
   </si>
   <si>
-    <t xml:space="preserve">CONSUMED </t>
-  </si>
-  <si>
     <t>lime kiln use</t>
   </si>
   <si>
@@ -621,15 +618,73 @@
   </si>
   <si>
     <t>heat turbine use</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>CH4 (CO2eq)</t>
+  </si>
+  <si>
+    <t>CH4 biogenic</t>
+  </si>
+  <si>
+    <t>charcoal kiln use</t>
+  </si>
+  <si>
+    <t>CONSUMED charcoal kiln use</t>
+  </si>
+  <si>
+    <t>CONSUMED hot rolling factory use</t>
+  </si>
+  <si>
+    <t>CONSUMED BOF use</t>
+  </si>
+  <si>
+    <t>CONSUMED BF factory use</t>
+  </si>
+  <si>
+    <t>CONSUMED sinter factory use</t>
+  </si>
+  <si>
+    <t>CONSUMED pellet factory use</t>
+  </si>
+  <si>
+    <t>CONSUMED lime kiln use</t>
+  </si>
+  <si>
+    <t>CONSUMED EAF use</t>
+  </si>
+  <si>
+    <t>CONSUMED DRI use</t>
+  </si>
+  <si>
+    <t>CONSUMED syngas factory use</t>
+  </si>
+  <si>
+    <t>CONSUMED O2 factory use</t>
+  </si>
+  <si>
+    <t>CONSUMED electricity turbine use</t>
+  </si>
+  <si>
+    <t>CONSUMED heat turbine use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -775,43 +830,46 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,7 +1479,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>2</v>
@@ -1836,13 +1894,13 @@
         <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>182</v>
+      <c r="D20" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>1</v>
@@ -1861,7 +1919,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
@@ -2413,13 +2471,13 @@
         <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>182</v>
+      <c r="D25" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1</v>
@@ -2438,7 +2496,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
@@ -2618,13 +2676,13 @@
         <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>182</v>
+      <c r="D7" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -2649,7 +2707,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2781,13 +2839,13 @@
         <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>182</v>
+      <c r="D6" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
@@ -2806,7 +2864,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2918,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2932,13 +2990,13 @@
         <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>182</v>
+      <c r="D6" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
@@ -3409,7 +3467,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3598,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
@@ -3613,13 +3671,13 @@
         <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>182</v>
+      <c r="D9" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
@@ -3639,7 +3697,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -3923,13 +3981,13 @@
         <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>182</v>
+      <c r="D13" s="34" t="s">
+        <v>202</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
@@ -3948,7 +4006,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4218,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -4232,13 +4290,13 @@
         <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>182</v>
+      <c r="D13" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>1</v>
@@ -4256,8 +4314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4776,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2</v>
@@ -4790,13 +4848,13 @@
         <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>182</v>
+      <c r="D24" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1</v>
@@ -4814,8 +4872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5227,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>2</v>
@@ -5241,13 +5299,13 @@
         <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>182</v>
+      <c r="D19" s="34" t="s">
+        <v>199</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1</v>
@@ -5266,7 +5324,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5509,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -5519,17 +5577,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>182</v>
+      <c r="D13" s="34" t="s">
+        <v>198</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
@@ -5545,15 +5601,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5572,8 +5628,264 @@
       <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5586,7 +5898,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G7" sqref="A7:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5873,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>2</v>
@@ -5887,13 +6199,13 @@
         <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>182</v>
+      <c r="D14" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>1</v>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3138C4EF-8D02-6449-9E7E-295773260B42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -29,17 +30,23 @@
     <sheet name="CO2 Capture" sheetId="13" r:id="rId15"/>
     <sheet name="CO2 Storage" sheetId="14" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="213">
   <si>
     <t>combustion</t>
   </si>
@@ -623,9 +630,6 @@
     <t>charcoal</t>
   </si>
   <si>
-    <t>CH4 (CO2eq)</t>
-  </si>
-  <si>
     <t>CH4 biogenic</t>
   </si>
   <si>
@@ -669,12 +673,24 @@
   </si>
   <si>
     <t>CONSUMED heat turbine use</t>
+  </si>
+  <si>
+    <t>CH4 (CO2eq)__emitted</t>
+  </si>
+  <si>
+    <t>biofuel heat</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>fossil heat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -873,8 +889,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,21 +1201,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1277,7 +1293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1323,7 +1339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1343,7 +1359,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1366,7 +1382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1386,7 +1402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1425,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1429,7 +1445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -1475,20 +1491,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -1563,7 +1579,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1602,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -1609,7 +1625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -1632,7 +1648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -1655,7 +1671,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1678,7 +1694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1695,7 +1711,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1718,7 +1734,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1751,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1755,7 +1771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -1775,7 +1791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -1795,7 +1811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1829,7 +1845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1852,7 +1868,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -1869,7 +1885,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -1889,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>179</v>
       </c>
@@ -1900,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>1</v>
@@ -1915,20 +1931,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1960,7 +1976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1986,7 +2002,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2010,7 +2026,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -2032,7 +2048,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -2054,7 +2070,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -2074,7 +2090,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -2094,7 +2110,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2117,7 +2133,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -2134,7 +2150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2157,7 +2173,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -2180,7 +2196,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2203,7 +2219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2226,7 +2242,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -2246,7 +2262,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -2269,7 +2285,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="28" t="s">
         <v>177</v>
@@ -2288,7 +2304,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2314,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -2331,7 +2347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>159</v>
       </c>
@@ -2354,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -2377,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>172</v>
       </c>
@@ -2400,7 +2416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>173</v>
       </c>
@@ -2423,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>162</v>
       </c>
@@ -2446,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -2466,7 +2482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -2477,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1</v>
@@ -2492,16 +2508,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2535,7 +2551,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -2563,7 +2579,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2591,7 +2607,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2619,7 +2635,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,7 +2661,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2671,7 +2687,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -2682,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -2703,26 +2719,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2754,7 +2770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2774,7 +2790,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2794,7 +2810,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2814,7 +2830,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
@@ -2834,7 +2850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2845,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
@@ -2860,16 +2876,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2901,107 +2917,179 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D5" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="C8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B9" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3011,26 +3099,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3062,7 +3150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3088,7 +3176,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3111,7 +3199,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3131,7 +3219,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3151,7 +3239,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>119</v>
       </c>
@@ -3171,7 +3259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
@@ -3191,7 +3279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>119</v>
       </c>
@@ -3211,7 +3299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -3228,7 +3316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -3251,7 +3339,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3276,22 +3364,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3323,7 +3411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -3343,7 +3431,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -3363,7 +3451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>156</v>
       </c>
@@ -3383,7 +3471,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -3400,7 +3488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -3420,7 +3508,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>175</v>
       </c>
@@ -3437,7 +3525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -3463,16 +3551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3504,7 +3592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -3527,7 +3615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3550,7 +3638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3576,7 +3664,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3602,7 +3690,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3645,7 +3733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -3666,7 +3754,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -3677,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
@@ -3693,20 +3781,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3738,7 +3826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3761,7 +3849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3781,7 +3869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3892,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3915,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3847,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3867,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -3890,7 +3978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -3913,7 +4001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3936,7 +4024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3956,7 +4044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -3976,7 +4064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -3987,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
@@ -4002,20 +4090,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4047,7 +4135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4070,7 +4158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4090,7 +4178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4113,7 +4201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4136,7 +4224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4156,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4176,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -4199,7 +4287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -4222,7 +4310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4245,7 +4333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4265,7 +4353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -4285,7 +4373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -4296,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>1</v>
@@ -4311,20 +4399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4356,7 +4444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -4379,7 +4467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4402,7 +4490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -4425,7 +4513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -4445,7 +4533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -4468,7 +4556,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -4491,7 +4579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4511,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -4531,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -4554,7 +4642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -4574,7 +4662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -4597,7 +4685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -4620,7 +4708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -4640,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -4661,7 +4749,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -4685,7 +4773,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4708,7 +4796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -4728,7 +4816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -4751,7 +4839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -4771,7 +4859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -4797,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -4823,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
@@ -4843,7 +4931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -4854,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1</v>
@@ -4869,21 +4957,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4915,7 +5003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4938,7 +5026,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4961,7 +5049,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -4988,7 +5076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -5015,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -5038,7 +5126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -5058,7 +5146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -5081,7 +5169,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -5104,7 +5192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -5124,7 +5212,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -5144,7 +5232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -5167,7 +5255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -5188,7 +5276,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -5211,7 +5299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -5231,7 +5319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -5254,7 +5342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -5274,7 +5362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>179</v>
       </c>
@@ -5294,7 +5382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -5305,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1</v>
@@ -5320,16 +5408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5352,7 +5440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -5375,7 +5463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -5396,7 +5484,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
         <v>147</v>
@@ -5415,7 +5503,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
         <v>176</v>
@@ -5434,7 +5522,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5457,7 +5545,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
@@ -5474,7 +5562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -5497,7 +5585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
@@ -5514,7 +5602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -5537,7 +5625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -5556,7 +5644,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -5576,7 +5664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>187</v>
@@ -5585,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
@@ -5600,16 +5688,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5641,7 +5734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -5664,7 +5757,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5687,7 +5780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5704,7 +5797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5714,8 +5807,8 @@
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>141</v>
+      <c r="D5" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -5727,164 +5820,103 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
+      <c r="B6" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B7" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>1</v>
+      <c r="C7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="31" t="s">
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5894,20 +5926,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="A7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5939,7 +5971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -5962,7 +5994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
@@ -5982,7 +6014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5999,7 +6031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -6022,7 +6054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -6039,7 +6071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -6062,7 +6094,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -6085,7 +6117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6108,7 +6140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6128,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -6148,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -6174,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -6194,7 +6226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
@@ -6205,7 +6237,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>1</v>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3138C4EF-8D02-6449-9E7E-295773260B42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7A075-2FA1-D34E-9C9A-8FBE324BA862}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="216">
   <si>
     <t>combustion</t>
   </si>
@@ -685,6 +685,15 @@
   </si>
   <si>
     <t>fossil heat</t>
+  </si>
+  <si>
+    <t>alloy use</t>
+  </si>
+  <si>
+    <t>alloy</t>
+  </si>
+  <si>
+    <t>CONSUMED alloy</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1504,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2879,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5409,10 +5418,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5679,6 +5688,43 @@
         <v>1</v>
       </c>
       <c r="F13" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7A075-2FA1-D34E-9C9A-8FBE324BA862}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC709C-4F40-B243-8362-EBA20641291E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <sheet name="Electricity" sheetId="10" r:id="rId13"/>
     <sheet name="Heat" sheetId="16" r:id="rId14"/>
     <sheet name="CO2 Capture" sheetId="13" r:id="rId15"/>
-    <sheet name="CO2 Storage" sheetId="14" r:id="rId16"/>
+    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId16"/>
+    <sheet name="CO2 Press" sheetId="24" r:id="rId17"/>
+    <sheet name="CO2 Storage" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="218">
   <si>
     <t>combustion</t>
   </si>
@@ -694,6 +696,12 @@
   </si>
   <si>
     <t>CONSUMED alloy</t>
+  </si>
+  <si>
+    <t>captured CO2</t>
+  </si>
+  <si>
+    <t>CO2 losses</t>
   </si>
 </sst>
 </file>
@@ -3112,7 +3120,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F13"/>
+      <selection activeCell="A6" sqref="A6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3215,8 +3223,8 @@
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>119</v>
+      <c r="D4" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
@@ -3249,8 +3257,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
-        <v>119</v>
+      <c r="A6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -3269,9 +3280,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3289,8 +3297,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>119</v>
+      <c r="B8" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -3329,8 +3337,8 @@
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>119</v>
+      <c r="B10" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>1</v>
@@ -3373,6 +3381,406 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9507DF2-D8F8-0B40-8678-5267C4E8FA82}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37DD3A-244E-E941-BEB9-43BF9377FFBD}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -5420,7 +5828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/data/steel/steel_simplified_calcs.xlsx
+++ b/data/steel/steel_simplified_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC709C-4F40-B243-8362-EBA20641291E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9615E2-7C51-734F-99C9-68CC0F42B0D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,18 +18,18 @@
     <sheet name="Pellets" sheetId="7" r:id="rId3"/>
     <sheet name="Sinter" sheetId="5" r:id="rId4"/>
     <sheet name="Iron" sheetId="8" r:id="rId5"/>
-    <sheet name="Steel" sheetId="3" r:id="rId6"/>
-    <sheet name="Finish" sheetId="12" r:id="rId7"/>
-    <sheet name="Charcoal" sheetId="22" r:id="rId8"/>
-    <sheet name="DRI" sheetId="18" r:id="rId9"/>
-    <sheet name="EAF" sheetId="17" r:id="rId10"/>
+    <sheet name="DRI" sheetId="18" r:id="rId6"/>
+    <sheet name="Steel" sheetId="3" r:id="rId7"/>
+    <sheet name="EAF" sheetId="17" r:id="rId8"/>
+    <sheet name="Finish" sheetId="12" r:id="rId9"/>
+    <sheet name="Charcoal" sheetId="22" r:id="rId10"/>
     <sheet name="Syngas" sheetId="21" r:id="rId11"/>
     <sheet name="Oxygen" sheetId="9" r:id="rId12"/>
     <sheet name="Electricity" sheetId="10" r:id="rId13"/>
     <sheet name="Heat" sheetId="16" r:id="rId14"/>
     <sheet name="CO2 Capture" sheetId="13" r:id="rId15"/>
     <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId16"/>
-    <sheet name="CO2 Press" sheetId="24" r:id="rId17"/>
+    <sheet name="CO2 Compress" sheetId="24" r:id="rId17"/>
     <sheet name="CO2 Storage" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1508,17 +1508,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1540,405 +1541,202 @@
       <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
+      <c r="G5" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>116</v>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
+      <c r="B8" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
+      <c r="A9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>127</v>
+        <v>195</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3120,7 +2918,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3385,7 +3183,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3650,7 +3448,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3692,7 +3490,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>37</v>
@@ -3715,7 +3513,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>37</v>
@@ -5374,6 +5172,333 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="A7:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -5824,12 +5949,452 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6139,569 +6704,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView topLeftCell="R2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A7:G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>